--- a/badbaby/static/meg_covariates.xlsx
+++ b/badbaby/static/meg_covariates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ss Coding" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="465">
   <si>
     <t xml:space="preserve">2 months-old</t>
   </si>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="V116:V117 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2239,7 +2239,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="V116:V117 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="V116:V117 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3629,7 +3629,7 @@
     <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A30)</f>
-        <v> N = 29</v>
+        <v>N = 29</v>
       </c>
       <c r="B31" s="36" t="str">
         <f aca="false">COUNTIF(B2:B30,"M")&amp;" Males; "&amp;COUNTIF(B2:B30,"F")&amp;" Females"</f>
@@ -4830,7 +4830,7 @@
     <row r="63" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A32:A62)</f>
-        <v> N = 31</v>
+        <v>N = 31</v>
       </c>
       <c r="B63" s="36" t="str">
         <f aca="false">COUNTIF(B32:B62,"M")&amp;" Males; "&amp;COUNTIF(B32:B62,"F")&amp;" Females"</f>
@@ -5661,7 +5661,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="C85" activeCellId="0" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="C85" activeCellId="1" sqref="V116:V117 C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7977,7 +7977,7 @@
     <row r="54" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A53)</f>
-        <v> N = 52</v>
+        <v>N = 52</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -8003,23 +8003,23 @@
       </c>
       <c r="I54" s="16" t="str">
         <f aca="false">" N = "&amp;SUM(I2:I53)</f>
-        <v> N = 48</v>
+        <v>N = 48</v>
       </c>
       <c r="J54" s="16" t="str">
         <f aca="false">" N = "&amp;SUM(J2:J53)</f>
-        <v> N = 50</v>
+        <v>N = 50</v>
       </c>
       <c r="K54" s="16" t="str">
         <f aca="false">" N = "&amp;SUM(K2:K53)</f>
-        <v> N = 41</v>
+        <v>N = 41</v>
       </c>
       <c r="L54" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L2:L53,"3")</f>
-        <v> N = 37</v>
+        <v>N = 37</v>
       </c>
       <c r="M54" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M2:M53,"TRUE")</f>
-        <v> N = 27</v>
+        <v>N = 27</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,7 +9785,7 @@
     <row r="95" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A55:A94)</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -9807,27 +9807,27 @@
       </c>
       <c r="H95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(H55:H94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="I95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(I55:I94,"1")</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="J95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(J55:J94,"1")</f>
-        <v> N = 38</v>
+        <v>N = 38</v>
       </c>
       <c r="K95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(K55:K94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="L95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L55:L94,"3")</f>
-        <v> N = 32</v>
+        <v>N = 32</v>
       </c>
       <c r="M95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M55:M94,"TRUE")</f>
-        <v> N = 26</v>
+        <v>N = 26</v>
       </c>
     </row>
     <row r="65536" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9844,17 +9844,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J77" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V116" activeCellId="0" sqref="V116:V117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9980,7 +9980,7 @@
       <c r="AG1" s="63"/>
       <c r="AH1" s="63"/>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
@@ -10069,7 +10069,7 @@
       <c r="AG2" s="70"/>
       <c r="AH2" s="70"/>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
         <v>63</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="AG3" s="70"/>
       <c r="AH3" s="70"/>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="68" t="s">
         <v>66</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="AG4" s="70"/>
       <c r="AH4" s="70"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="68" t="s">
         <v>122</v>
       </c>
@@ -10348,7 +10348,7 @@
       <c r="AG5" s="70"/>
       <c r="AH5" s="70"/>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="68" t="s">
         <v>69</v>
       </c>
@@ -10437,7 +10437,7 @@
       <c r="AG6" s="70"/>
       <c r="AH6" s="70"/>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="68" t="s">
         <v>71</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="AG7" s="70"/>
       <c r="AH7" s="70"/>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="68" t="s">
         <v>73</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="AG8" s="70"/>
       <c r="AH8" s="70"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="68" t="s">
         <v>76</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="AG9" s="70"/>
       <c r="AH9" s="70"/>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="68" t="s">
         <v>79</v>
       </c>
@@ -10813,7 +10813,7 @@
       <c r="AG10" s="70"/>
       <c r="AH10" s="70"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="68" t="s">
         <v>81</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="AG11" s="70"/>
       <c r="AH11" s="70"/>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="68" t="s">
         <v>83</v>
       </c>
@@ -10995,7 +10995,7 @@
       <c r="AG12" s="70"/>
       <c r="AH12" s="70"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="68" t="s">
         <v>86</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="AG13" s="70"/>
       <c r="AH13" s="70"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="68" t="s">
         <v>88</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="AG16" s="70"/>
       <c r="AH16" s="70"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="68" t="s">
         <v>93</v>
       </c>
@@ -11454,7 +11454,7 @@
       <c r="AG17" s="70"/>
       <c r="AH17" s="70"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="68" t="s">
         <v>205</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="AG18" s="70"/>
       <c r="AH18" s="70"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="68" t="s">
         <v>95</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="AG21" s="70"/>
       <c r="AH21" s="70"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="68" t="s">
         <v>97</v>
       </c>
@@ -11925,7 +11925,7 @@
       <c r="AG22" s="70"/>
       <c r="AH22" s="70"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="68" t="s">
         <v>209</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="AG25" s="70"/>
       <c r="AH25" s="70"/>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="68" t="s">
         <v>127</v>
       </c>
@@ -12491,7 +12491,7 @@
       <c r="AG28" s="70"/>
       <c r="AH28" s="70"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="68" t="s">
         <v>104</v>
       </c>
@@ -12584,7 +12584,7 @@
       <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="68" t="s">
         <v>106</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="AG34" s="70"/>
       <c r="AH34" s="70"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="68" t="s">
         <v>111</v>
       </c>
@@ -13146,7 +13146,7 @@
       <c r="AG35" s="70"/>
       <c r="AH35" s="70"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="68" t="s">
         <v>219</v>
       </c>
@@ -13240,7 +13240,7 @@
       <c r="AG36" s="70"/>
       <c r="AH36" s="70"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="68" t="s">
         <v>112</v>
       </c>
@@ -13333,7 +13333,7 @@
       <c r="AG37" s="70"/>
       <c r="AH37" s="70"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="68" t="s">
         <v>220</v>
       </c>
@@ -13617,7 +13617,7 @@
       <c r="AG40" s="70"/>
       <c r="AH40" s="70"/>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="68" t="s">
         <v>116</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="AG41" s="70"/>
       <c r="AH41" s="70"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="68" t="s">
         <v>117</v>
       </c>
@@ -13821,7 +13821,7 @@
       <c r="AG42" s="70"/>
       <c r="AH42" s="70"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="68" t="s">
         <v>224</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="AG43" s="70"/>
       <c r="AH43" s="70"/>
     </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="68" t="s">
         <v>119</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="AG44" s="70"/>
       <c r="AH44" s="70"/>
     </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="68" t="s">
         <v>226</v>
       </c>
@@ -14127,7 +14127,7 @@
       <c r="AG45" s="70"/>
       <c r="AH45" s="70"/>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="68" t="s">
         <v>128</v>
       </c>
@@ -14223,7 +14223,7 @@
       <c r="AG46" s="70"/>
       <c r="AH46" s="70"/>
     </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="68" t="s">
         <v>130</v>
       </c>
@@ -14316,7 +14316,7 @@
       <c r="AG47" s="70"/>
       <c r="AH47" s="70"/>
     </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="68" t="s">
         <v>132</v>
       </c>
@@ -14409,7 +14409,7 @@
       <c r="AG48" s="70"/>
       <c r="AH48" s="70"/>
     </row>
-    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="68" t="s">
         <v>133</v>
       </c>
@@ -14500,7 +14500,7 @@
       <c r="AG49" s="70"/>
       <c r="AH49" s="70"/>
     </row>
-    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="68" t="s">
         <v>134</v>
       </c>
@@ -14593,7 +14593,7 @@
       <c r="AG50" s="70"/>
       <c r="AH50" s="70"/>
     </row>
-    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="68" t="s">
         <v>136</v>
       </c>
@@ -14682,7 +14682,7 @@
       <c r="AG51" s="70"/>
       <c r="AH51" s="70"/>
     </row>
-    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="68" t="s">
         <v>228</v>
       </c>
@@ -15148,7 +15148,7 @@
       <c r="AG56" s="70"/>
       <c r="AH56" s="70"/>
     </row>
-    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="68" t="s">
         <v>141</v>
       </c>
@@ -15237,7 +15237,7 @@
       <c r="AG57" s="70"/>
       <c r="AH57" s="70"/>
     </row>
-    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="68" t="s">
         <v>143</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="AG58" s="70"/>
       <c r="AH58" s="70"/>
     </row>
-    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="68" t="s">
         <v>145</v>
       </c>
@@ -15599,7 +15599,7 @@
       <c r="AG61" s="70"/>
       <c r="AH61" s="70"/>
     </row>
-    <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="68" t="s">
         <v>148</v>
       </c>
@@ -15688,7 +15688,7 @@
       <c r="AG62" s="70"/>
       <c r="AH62" s="70"/>
     </row>
-    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="68" t="s">
         <v>150</v>
       </c>
@@ -15965,7 +15965,7 @@
       <c r="AG65" s="70"/>
       <c r="AH65" s="70"/>
     </row>
-    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="68" t="s">
         <v>153</v>
       </c>
@@ -16599,7 +16599,7 @@
       <c r="AG72" s="70"/>
       <c r="AH72" s="70"/>
     </row>
-    <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="68" t="s">
         <v>161</v>
       </c>
@@ -16691,7 +16691,7 @@
       <c r="AG73" s="70"/>
       <c r="AH73" s="70"/>
     </row>
-    <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="68" t="s">
         <v>240</v>
       </c>
@@ -16780,7 +16780,7 @@
       <c r="AG74" s="70"/>
       <c r="AH74" s="70"/>
     </row>
-    <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="68" t="s">
         <v>162</v>
       </c>
@@ -17049,7 +17049,7 @@
       <c r="AG77" s="70"/>
       <c r="AH77" s="70"/>
     </row>
-    <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="68" t="s">
         <v>165</v>
       </c>
@@ -17139,7 +17139,7 @@
       <c r="AG78" s="70"/>
       <c r="AH78" s="70"/>
     </row>
-    <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="68" t="s">
         <v>243</v>
       </c>
@@ -17228,7 +17228,7 @@
       <c r="AG79" s="70"/>
       <c r="AH79" s="70"/>
     </row>
-    <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="68" t="s">
         <v>166</v>
       </c>
@@ -17318,7 +17318,7 @@
       <c r="AG80" s="70"/>
       <c r="AH80" s="70"/>
     </row>
-    <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="68" t="s">
         <v>244</v>
       </c>
@@ -17408,7 +17408,7 @@
       <c r="AG81" s="70"/>
       <c r="AH81" s="70"/>
     </row>
-    <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="68" t="s">
         <v>168</v>
       </c>
@@ -17506,7 +17506,7 @@
       <c r="AG82" s="70"/>
       <c r="AH82" s="70"/>
     </row>
-    <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="68" t="s">
         <v>246</v>
       </c>
@@ -17606,7 +17606,7 @@
       <c r="AG83" s="70"/>
       <c r="AH83" s="70"/>
     </row>
-    <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="68" t="s">
         <v>170</v>
       </c>
@@ -17699,7 +17699,7 @@
       <c r="AG84" s="70"/>
       <c r="AH84" s="70"/>
     </row>
-    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="68" t="s">
         <v>247</v>
       </c>
@@ -17795,7 +17795,7 @@
       <c r="AG85" s="70"/>
       <c r="AH85" s="70"/>
     </row>
-    <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="68" t="s">
         <v>187</v>
       </c>
@@ -17892,7 +17892,7 @@
       <c r="AG86" s="70"/>
       <c r="AH86" s="70"/>
     </row>
-    <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="68" t="s">
         <v>188</v>
       </c>
@@ -17981,7 +17981,7 @@
       <c r="AG87" s="70"/>
       <c r="AH87" s="70"/>
     </row>
-    <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="68" t="s">
         <v>248</v>
       </c>
@@ -18073,7 +18073,7 @@
       <c r="AG88" s="70"/>
       <c r="AH88" s="70"/>
     </row>
-    <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="68" t="s">
         <v>171</v>
       </c>
@@ -18167,7 +18167,7 @@
       <c r="AG89" s="70"/>
       <c r="AH89" s="70"/>
     </row>
-    <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="68" t="s">
         <v>189</v>
       </c>
@@ -18257,7 +18257,7 @@
       <c r="AG90" s="70"/>
       <c r="AH90" s="70"/>
     </row>
-    <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="68" t="s">
         <v>190</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="M92" s="70" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N92" s="72" t="n">
         <v>59</v>
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="70" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N93" s="72" t="n">
         <v>188</v>
@@ -18572,7 +18572,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="70" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N94" s="72" t="n">
         <v>64</v>
@@ -18662,7 +18662,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="70" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N95" s="72" t="n">
         <v>186</v>
@@ -18752,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="70" t="n">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="N96" s="72" t="n">
         <v>64</v>
@@ -18846,7 +18846,7 @@
         <v>1</v>
       </c>
       <c r="M97" s="70" t="n">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="N97" s="72" t="n">
         <v>191</v>
@@ -18940,7 +18940,7 @@
         <v>1</v>
       </c>
       <c r="M98" s="70" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N98" s="72" t="n">
         <v>54</v>
@@ -19034,7 +19034,7 @@
         <v>1</v>
       </c>
       <c r="M99" s="70" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N99" s="72" t="n">
         <v>188</v>
@@ -19087,7 +19087,7 @@
       <c r="AG99" s="70"/>
       <c r="AH99" s="70"/>
     </row>
-    <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="68" t="s">
         <v>173</v>
       </c>
@@ -19176,7 +19176,7 @@
       <c r="AG100" s="70"/>
       <c r="AH100" s="70"/>
     </row>
-    <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="68" t="s">
         <v>253</v>
       </c>
@@ -19268,7 +19268,7 @@
       <c r="AG101" s="70"/>
       <c r="AH101" s="70"/>
     </row>
-    <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="68" t="s">
         <v>195</v>
       </c>
@@ -19360,7 +19360,7 @@
       <c r="AG102" s="70"/>
       <c r="AH102" s="70"/>
     </row>
-    <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="68" t="s">
         <v>255</v>
       </c>
@@ -19449,7 +19449,7 @@
       <c r="AG103" s="70"/>
       <c r="AH103" s="70"/>
     </row>
-    <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="68" t="s">
         <v>120</v>
       </c>
@@ -19539,7 +19539,7 @@
       <c r="AG104" s="70"/>
       <c r="AH104" s="70"/>
     </row>
-    <row r="105" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="68" t="s">
         <v>196</v>
       </c>
@@ -19629,7 +19629,7 @@
       <c r="AG105" s="70"/>
       <c r="AH105" s="70"/>
     </row>
-    <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="68" t="s">
         <v>256</v>
       </c>
@@ -19719,7 +19719,7 @@
       <c r="AG106" s="70"/>
       <c r="AH106" s="70"/>
     </row>
-    <row r="107" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="68" t="s">
         <v>197</v>
       </c>
@@ -19809,7 +19809,7 @@
       <c r="AG107" s="70"/>
       <c r="AH107" s="70"/>
     </row>
-    <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="68" t="s">
         <v>258</v>
       </c>
@@ -19899,7 +19899,7 @@
       <c r="AG108" s="70"/>
       <c r="AH108" s="70"/>
     </row>
-    <row r="109" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="68" t="s">
         <v>198</v>
       </c>
@@ -19989,7 +19989,7 @@
       <c r="AG109" s="70"/>
       <c r="AH109" s="70"/>
     </row>
-    <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="68" t="s">
         <v>259</v>
       </c>
@@ -20081,7 +20081,7 @@
       <c r="AG110" s="70"/>
       <c r="AH110" s="70"/>
     </row>
-    <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="68" t="s">
         <v>417</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>1</v>
       </c>
       <c r="M112" s="70" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N112" s="72" t="n">
         <v>54</v>
@@ -20292,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="M113" s="70" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N113" s="72" t="n">
         <v>193</v>
@@ -20341,7 +20341,7 @@
       <c r="AG113" s="70"/>
       <c r="AH113" s="70"/>
     </row>
-    <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="68" t="s">
         <v>200</v>
       </c>
@@ -20431,7 +20431,7 @@
       <c r="AG114" s="70"/>
       <c r="AH114" s="70"/>
     </row>
-    <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="68" t="s">
         <v>261</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="M116" s="70" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N116" s="72" t="n">
         <v>62</v>
@@ -20572,16 +20572,24 @@
       <c r="P116" s="72" t="n">
         <v>40</v>
       </c>
-      <c r="Q116" s="72"/>
+      <c r="Q116" s="72" t="n">
+        <v>16</v>
+      </c>
       <c r="R116" s="72" t="n">
         <v>6</v>
       </c>
-      <c r="S116" s="72"/>
+      <c r="S116" s="72" t="n">
+        <v>18</v>
+      </c>
       <c r="T116" s="72" t="n">
         <v>7</v>
       </c>
-      <c r="U116" s="72"/>
-      <c r="V116" s="72"/>
+      <c r="U116" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="V116" s="72" t="s">
+        <v>362</v>
+      </c>
       <c r="W116" s="72" t="n">
         <v>1</v>
       </c>
@@ -20647,7 +20655,7 @@
         <v>1</v>
       </c>
       <c r="M117" s="70" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N117" s="72" t="n">
         <v>185</v>
@@ -20658,16 +20666,24 @@
       <c r="P117" s="72" t="n">
         <v>43</v>
       </c>
-      <c r="Q117" s="72"/>
+      <c r="Q117" s="72" t="n">
+        <v>16</v>
+      </c>
       <c r="R117" s="72" t="n">
         <v>6</v>
       </c>
-      <c r="S117" s="72"/>
+      <c r="S117" s="72" t="n">
+        <v>18</v>
+      </c>
       <c r="T117" s="72" t="n">
         <v>7</v>
       </c>
-      <c r="U117" s="72"/>
-      <c r="V117" s="72"/>
+      <c r="U117" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="V117" s="72" t="s">
+        <v>362</v>
+      </c>
       <c r="W117" s="72" t="n">
         <v>1</v>
       </c>
@@ -20693,7 +20709,13 @@
       <c r="AH117" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF117"/>
+  <autoFilter ref="A1:AF117">
+    <filterColumn colId="11">
+      <customFilters and="true">
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20713,18 +20735,18 @@
   <dimension ref="A1:AMJ117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="V116:V117 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="80" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="80" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="80" width="13.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="6" style="80" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="80" width="15.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="13" style="80" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="81" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="81" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="81" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="23" style="80" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="62" width="11.52"/>
   </cols>
@@ -29319,8 +29341,8 @@
   </sheetPr>
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="1" sqref="V116:V117 A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34713,8 +34735,8 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F94" activeCellId="1" sqref="V116:V117 F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36613,7 +36635,7 @@
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87"/>
+      <selection pane="topLeft" activeCell="A87" activeCellId="1" sqref="V116:V117 A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/badbaby/static/meg_covariates.xlsx
+++ b/badbaby/static/meg_covariates.xlsx
@@ -15,7 +15,7 @@
     <sheet name="mmn" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="assr" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="ids" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="MEG" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="MEG" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">assr!$A$1:$AF$117</definedName>
@@ -993,6 +993,9 @@
     <t xml:space="preserve">MEG2112, MEG0212</t>
   </si>
   <si>
+    <t xml:space="preserve">MEG1711</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asian/Pacific Islander</t>
   </si>
   <si>
@@ -1050,9 +1053,6 @@
     <t xml:space="preserve">MEG2611</t>
   </si>
   <si>
-    <t xml:space="preserve">MEG1711</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 lbs 13 ozs</t>
   </si>
   <si>
@@ -1332,97 +1332,97 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
+    <t xml:space="preserve">0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0431; 0641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0142;2623;2432;0611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111</t>
+  </si>
+  <si>
     <t xml:space="preserve">0141</t>
   </si>
   <si>
-    <t xml:space="preserve">0143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111</t>
-  </si>
-  <si>
     <t xml:space="preserve">2112;0212</t>
   </si>
   <si>
+    <t xml:space="preserve">1112;1433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2112;2431;0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1443;2622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2542;1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0733; 0641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2623; 0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1413; 1041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0933; 0141; 0111; 1421; 1541; 1431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1421; 1431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1413; 0622</t>
+  </si>
+  <si>
     <t xml:space="preserve">0114</t>
   </si>
   <si>
     <t xml:space="preserve">0313</t>
   </si>
   <si>
-    <t xml:space="preserve">1543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1443;2622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2623; 0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1413; 1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0933; 0141; 0111; 1421; 1541; 1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0621</t>
+    <t xml:space="preserve">0413,2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1832, 0412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1531</t>
   </si>
   <si>
     <t xml:space="preserve">0331</t>
   </si>
   <si>
-    <t xml:space="preserve">0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112;1433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0733; 0641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1531</t>
-  </si>
-  <si>
     <t xml:space="preserve">2542; 2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0413,2132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0142;2623;2432;0611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112;2431;0212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2542;1042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1832, 0412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1421; 1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1413; 0622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0431; 0641</t>
   </si>
 </sst>
 </file>
@@ -2084,12 +2084,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2120,10 +2120,10 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D14 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="C13 B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="D14 B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.17"/>
@@ -2442,18 +2442,18 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D14 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3607,7 +3607,7 @@
     <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A30)</f>
-        <v> N = 29</v>
+        <v>N = 29</v>
       </c>
       <c r="B31" s="36" t="str">
         <f aca="false">COUNTIF(B2:B30,"M")&amp;" Males; "&amp;COUNTIF(B2:B30,"F")&amp;" Females"</f>
@@ -4808,7 +4808,7 @@
     <row r="63" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A32:A62)</f>
-        <v> N = 31</v>
+        <v>N = 31</v>
       </c>
       <c r="B63" s="36" t="str">
         <f aca="false">COUNTIF(B32:B62,"M")&amp;" Males; "&amp;COUNTIF(B32:B62,"F")&amp;" Females"</f>
@@ -5639,20 +5639,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" activeCellId="1" sqref="C13 C85"/>
+      <selection pane="bottomRight" activeCell="C85" activeCellId="1" sqref="D14 C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.33"/>
   </cols>
   <sheetData>
@@ -7954,7 +7954,7 @@
     <row r="54" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A2:A53)</f>
-        <v> N = 52</v>
+        <v>N = 52</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -7980,23 +7980,23 @@
       </c>
       <c r="I54" s="16" t="str">
         <f aca="false">" N = "&amp;SUM(I2:I53)</f>
-        <v> N = 48</v>
+        <v>N = 48</v>
       </c>
       <c r="J54" s="16" t="str">
         <f aca="false">" N = "&amp;SUM(J2:J53)</f>
-        <v> N = 50</v>
+        <v>N = 50</v>
       </c>
       <c r="K54" s="16" t="str">
         <f aca="false">" N = "&amp;SUM(K2:K53)</f>
-        <v> N = 41</v>
+        <v>N = 41</v>
       </c>
       <c r="L54" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L2:L53,"3")</f>
-        <v> N = 37</v>
+        <v>N = 37</v>
       </c>
       <c r="M54" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M2:M53,"TRUE")</f>
-        <v> N = 27</v>
+        <v>N = 27</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +9762,7 @@
     <row r="95" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="35" t="str">
         <f aca="false">" N = "&amp;COUNTA(A55:A94)</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -9784,27 +9784,27 @@
       </c>
       <c r="H95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(H55:H94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="I95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(I55:I94,"1")</f>
-        <v> N = 40</v>
+        <v>N = 40</v>
       </c>
       <c r="J95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(J55:J94,"1")</f>
-        <v> N = 38</v>
+        <v>N = 38</v>
       </c>
       <c r="K95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(K55:K94,"1")</f>
-        <v> N = 33</v>
+        <v>N = 33</v>
       </c>
       <c r="L95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(L55:L94,"3")</f>
-        <v> N = 32</v>
+        <v>N = 32</v>
       </c>
       <c r="M95" s="16" t="str">
         <f aca="false">" N = "&amp;COUNTIF(M55:M94,"TRUE")</f>
-        <v> N = 26</v>
+        <v>N = 26</v>
       </c>
     </row>
     <row r="65536" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9831,25 +9831,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="62" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="51.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="51.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="61.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="23" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="33" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="38" style="0" width="15.83"/>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E2" s="70" t="n">
         <f aca="false">IF(mmn!A2=MEG!A2,MEG!E2)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F2" s="70" t="n">
         <v>1</v>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="E3" s="70" t="n">
         <f aca="false">IF(mmn!A3=MEG!A3,MEG!E3)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F3" s="70" t="n">
         <v>1</v>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="E4" s="70" t="n">
         <f aca="false">IF(mmn!A4=MEG!A4,MEG!E4)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F4" s="70" t="n">
         <v>1</v>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="E5" s="70" t="n">
         <f aca="false">IF(mmn!A5=MEG!A5,MEG!E5)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F5" s="70" t="n">
         <v>1</v>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="E6" s="70" t="n">
         <f aca="false">IF(mmn!A6=MEG!A6,MEG!E6)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F6" s="70" t="n">
         <v>1</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="E7" s="70" t="n">
         <f aca="false">IF(mmn!A7=MEG!A7,MEG!E7)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F7" s="70" t="n">
         <v>1</v>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="E8" s="70" t="n">
         <f aca="false">IF(mmn!A8=MEG!A8,MEG!E8)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F8" s="70" t="n">
         <v>1</v>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="E9" s="70" t="n">
         <f aca="false">IF(mmn!A9=MEG!A9,MEG!E9)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F9" s="70" t="n">
         <v>1</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="E10" s="70" t="n">
         <f aca="false">IF(mmn!A10=MEG!A10,MEG!E10)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F10" s="70" t="n">
         <v>1</v>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="E11" s="70" t="n">
         <f aca="false">IF(mmn!A11=MEG!A11,MEG!E11)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F11" s="70" t="n">
         <v>1</v>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="E12" s="70" t="n">
         <f aca="false">IF(mmn!A12=MEG!A12,MEG!E12)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F12" s="70" t="n">
         <v>1</v>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="E13" s="70" t="n">
         <f aca="false">IF(mmn!A13=MEG!A13,MEG!E13)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F13" s="70" t="n">
         <v>1</v>
@@ -11071,11 +11071,11 @@
         <v>319</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E14" s="70" t="n">
         <f aca="false">IF(mmn!A14=MEG!A14,MEG!E14)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F14" s="70" t="n">
         <v>1</v>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="E15" s="70" t="n">
         <f aca="false">IF(mmn!A15=MEG!A15,MEG!E15)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F15" s="70" t="n">
         <v>1</v>
@@ -11218,10 +11218,10 @@
         <v>6</v>
       </c>
       <c r="U15" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W15" s="72" t="n">
         <v>0</v>
@@ -11251,14 +11251,14 @@
         <v>42462</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E16" s="70" t="n">
         <f aca="false">IF(mmn!A16=MEG!A16,MEG!E16)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F16" s="70" t="n">
         <v>1</v>
@@ -11308,10 +11308,10 @@
         <v>6</v>
       </c>
       <c r="U16" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V16" s="74" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W16" s="72" t="n">
         <v>0</v>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="E17" s="70" t="n">
         <f aca="false">IF(mmn!A17=MEG!A17,MEG!E17)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F17" s="70" t="n">
         <v>1</v>
@@ -11400,7 +11400,7 @@
         <v>297</v>
       </c>
       <c r="V17" s="74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W17" s="72" t="n">
         <v>2</v>
@@ -11420,7 +11420,7 @@
       <c r="AB17" s="72"/>
       <c r="AC17" s="72"/>
       <c r="AD17" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE17" s="72" t="n">
         <f aca="false">7*16</f>
@@ -11438,14 +11438,14 @@
         <v>42452</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>310</v>
       </c>
       <c r="E18" s="70" t="n">
         <f aca="false">IF(mmn!A18=MEG!A18,MEG!E18)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F18" s="70" t="n">
         <v>1</v>
@@ -11498,7 +11498,7 @@
         <v>297</v>
       </c>
       <c r="V18" s="74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W18" s="72" t="n">
         <v>2</v>
@@ -11518,7 +11518,7 @@
       <c r="AB18" s="72"/>
       <c r="AC18" s="72"/>
       <c r="AD18" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE18" s="72" t="n">
         <f aca="false">7*16</f>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="E19" s="70" t="n">
         <f aca="false">IF(mmn!A19=MEG!A19,MEG!E19)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F19" s="70" t="n">
         <v>1</v>
@@ -11617,7 +11617,7 @@
       <c r="AB19" s="72"/>
       <c r="AC19" s="72"/>
       <c r="AD19" s="72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AE19" s="72" t="n">
         <f aca="false">8*16+11</f>
@@ -11638,11 +11638,11 @@
         <v>295</v>
       </c>
       <c r="D20" s="71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E20" s="70" t="n">
         <f aca="false">IF(mmn!A20=MEG!A20,MEG!E20)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F20" s="70" t="n">
         <v>1</v>
@@ -11692,7 +11692,7 @@
         <v>6</v>
       </c>
       <c r="U20" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V20" s="74" t="s">
         <v>297</v>
@@ -11707,7 +11707,7 @@
       <c r="AB20" s="72"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE20" s="72" t="n">
         <f aca="false">7*16+3</f>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="E21" s="70" t="n">
         <f aca="false">IF(mmn!A21=MEG!A21,MEG!E21)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F21" s="70" t="n">
         <v>1</v>
@@ -11782,7 +11782,7 @@
         <v>6</v>
       </c>
       <c r="U21" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V21" s="74" t="s">
         <v>297</v>
@@ -11797,7 +11797,7 @@
       <c r="AB21" s="72"/>
       <c r="AC21" s="72"/>
       <c r="AD21" s="72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE21" s="72" t="n">
         <f aca="false">7*16+3</f>
@@ -11815,14 +11815,14 @@
         <v>42332</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>296</v>
       </c>
       <c r="E22" s="70" t="n">
         <f aca="false">IF(mmn!A22=MEG!A22,MEG!E22)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F22" s="70" t="n">
         <v>1</v>
@@ -11872,10 +11872,10 @@
         <v>5</v>
       </c>
       <c r="U22" s="74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V22" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W22" s="72" t="n">
         <v>1</v>
@@ -11891,7 +11891,7 @@
       <c r="AB22" s="72"/>
       <c r="AC22" s="72"/>
       <c r="AD22" s="72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE22" s="72" t="n">
         <f aca="false">6*16+11</f>
@@ -11909,14 +11909,14 @@
         <v>42451</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>296</v>
       </c>
       <c r="E23" s="70" t="n">
         <f aca="false">IF(mmn!A23=MEG!A23,MEG!E23)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F23" s="70" t="n">
         <v>1</v>
@@ -11965,10 +11965,10 @@
         <v>5</v>
       </c>
       <c r="U23" s="74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V23" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W23" s="72" t="n">
         <v>1</v>
@@ -11984,7 +11984,7 @@
       <c r="AB23" s="72"/>
       <c r="AC23" s="72"/>
       <c r="AD23" s="72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE23" s="72" t="n">
         <f aca="false">6*16+11</f>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="E24" s="70" t="n">
         <f aca="false">IF(mmn!A24=MEG!A24,MEG!E24)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F24" s="70" t="n">
         <v>1</v>
@@ -12062,7 +12062,7 @@
         <v>297</v>
       </c>
       <c r="V24" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W24" s="72" t="n">
         <v>2</v>
@@ -12082,7 +12082,7 @@
       <c r="AB24" s="72"/>
       <c r="AC24" s="72"/>
       <c r="AD24" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE24" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -12100,14 +12100,14 @@
         <v>42464</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>296</v>
       </c>
       <c r="E25" s="70" t="n">
         <f aca="false">IF(mmn!A25=MEG!A25,MEG!E25)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F25" s="70" t="n">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>297</v>
       </c>
       <c r="V25" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W25" s="72" t="n">
         <v>2</v>
@@ -12180,7 +12180,7 @@
       <c r="AB25" s="72"/>
       <c r="AC25" s="72"/>
       <c r="AD25" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE25" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="E26" s="70" t="n">
         <f aca="false">IF(mmn!A26=MEG!A26,MEG!E26)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F26" s="70" t="n">
         <v>1</v>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="E27" s="70" t="n">
         <f aca="false">IF(mmn!A27=MEG!A27,MEG!E27)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F27" s="70" t="n">
         <v>1</v>
@@ -12363,7 +12363,7 @@
       <c r="AB27" s="72"/>
       <c r="AC27" s="72"/>
       <c r="AD27" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE27" s="72" t="n">
         <f aca="false">7*16</f>
@@ -12384,11 +12384,11 @@
         <v>295</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E28" s="70" t="n">
         <f aca="false">IF(mmn!A28=MEG!A28,MEG!E28)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F28" s="70" t="n">
         <v>1</v>
@@ -12457,7 +12457,7 @@
       <c r="AB28" s="72"/>
       <c r="AC28" s="72"/>
       <c r="AD28" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE28" s="72" t="n">
         <f aca="false">7*16</f>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="E29" s="70" t="n">
         <f aca="false">IF(mmn!A29=MEG!A29,MEG!E29)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="70" t="n">
         <v>1</v>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="E30" s="70" t="n">
         <f aca="false">IF(mmn!A30=MEG!A30,MEG!E30)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F30" s="70" t="n">
         <v>1</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="E31" s="70" t="n">
         <f aca="false">IF(mmn!A31=MEG!A31,MEG!E31)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F31" s="70" t="n">
         <v>1</v>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="E32" s="70" t="n">
         <f aca="false">IF(mmn!A32=MEG!A32,MEG!E32)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F32" s="70" t="n">
         <v>1</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="E33" s="70" t="n">
         <f aca="false">IF(mmn!A33=MEG!A33,MEG!E33)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F33" s="70" t="n">
         <v>1</v>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="E34" s="70" t="n">
         <f aca="false">IF(mmn!A34=MEG!A34,MEG!E34)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F34" s="70" t="n">
         <v>1</v>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="E35" s="70" t="n">
         <f aca="false">IF(mmn!A35=MEG!A35,MEG!E35)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F35" s="70" t="n">
         <v>1</v>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="E36" s="70" t="n">
         <f aca="false">IF(mmn!A36=MEG!A36,MEG!E36)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F36" s="70" t="n">
         <v>1</v>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="E37" s="70" t="n">
         <f aca="false">IF(mmn!A37=MEG!A37,MEG!E37)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F37" s="70" t="n">
         <v>1</v>
@@ -13280,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="U37" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V37" s="74" t="s">
         <v>304</v>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="E38" s="70" t="n">
         <f aca="false">IF(mmn!A38=MEG!A38,MEG!E38)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F38" s="70" t="n">
         <v>1</v>
@@ -13374,7 +13374,7 @@
         <v>3</v>
       </c>
       <c r="U38" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V38" s="74" t="s">
         <v>304</v>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="E39" s="70" t="n">
         <f aca="false">IF(mmn!A39=MEG!A39,MEG!E39)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F39" s="70" t="n">
         <v>1</v>
@@ -13470,7 +13470,7 @@
         <v>4</v>
       </c>
       <c r="U39" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V39" s="74" t="s">
         <v>354</v>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="E40" s="70" t="n">
         <f aca="false">IF(mmn!A40=MEG!A40,MEG!E40)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F40" s="70" t="n">
         <v>1</v>
@@ -13564,7 +13564,7 @@
         <v>4</v>
       </c>
       <c r="U40" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V40" s="74" t="s">
         <v>354</v>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="E41" s="70" t="n">
         <f aca="false">IF(mmn!A41=MEG!A41,MEG!E41)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F41" s="70" t="n">
         <v>1</v>
@@ -13685,7 +13685,7 @@
         <v>60</v>
       </c>
       <c r="AD41" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE41" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="E42" s="70" t="n">
         <f aca="false">IF(mmn!A42=MEG!A42,MEG!E42)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F42" s="70" t="n">
         <v>1</v>
@@ -13760,7 +13760,7 @@
         <v>6</v>
       </c>
       <c r="U42" s="74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V42" s="74" t="s">
         <v>358</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="E43" s="70" t="n">
         <f aca="false">IF(mmn!A43=MEG!A43,MEG!E43)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F43" s="70" t="n">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>6</v>
       </c>
       <c r="U43" s="74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V43" s="74" t="s">
         <v>358</v>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="E44" s="70" t="n">
         <f aca="false">IF(mmn!A44=MEG!A44,MEG!E44)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F44" s="70" t="n">
         <v>1</v>
@@ -14012,11 +14012,11 @@
         <v>295</v>
       </c>
       <c r="D45" s="71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E45" s="70" t="n">
         <f aca="false">IF(mmn!A45=MEG!A45,MEG!E45)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F45" s="70" t="n">
         <v>1</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="E46" s="70" t="n">
         <f aca="false">IF(mmn!A46=MEG!A46,MEG!E46)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="70" t="n">
         <v>1</v>
@@ -14171,7 +14171,7 @@
         <v>363</v>
       </c>
       <c r="V46" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W46" s="72" t="n">
         <v>1</v>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="E47" s="70" t="n">
         <f aca="false">IF(mmn!A47=MEG!A47,MEG!E47)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="70" t="n">
         <v>1</v>
@@ -14282,7 +14282,7 @@
       <c r="AB47" s="72"/>
       <c r="AC47" s="72"/>
       <c r="AD47" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE47" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="E48" s="70" t="n">
         <f aca="false">IF(mmn!A48=MEG!A48,MEG!E48)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F48" s="70" t="n">
         <v>1</v>
@@ -14400,7 +14400,7 @@
       </c>
       <c r="E49" s="70" t="n">
         <f aca="false">IF(mmn!A49=MEG!A49,MEG!E49)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F49" s="70" t="n">
         <v>1</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="E50" s="70" t="n">
         <f aca="false">IF(mmn!A50=MEG!A50,MEG!E50)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F50" s="70" t="n">
         <v>1</v>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="E51" s="70" t="n">
         <f aca="false">IF(mmn!A51=MEG!A51,MEG!E51)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F51" s="70" t="n">
         <v>1</v>
@@ -14633,7 +14633,7 @@
         <v>6</v>
       </c>
       <c r="U51" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V51" s="74" t="s">
         <v>297</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="E52" s="70" t="n">
         <f aca="false">IF(mmn!A52=MEG!A52,MEG!E52)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F52" s="70" t="n">
         <v>0</v>
@@ -14723,7 +14723,7 @@
         <v>6</v>
       </c>
       <c r="U52" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V52" s="74" t="s">
         <v>297</v>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="E53" s="70" t="n">
         <f aca="false">IF(mmn!A53=MEG!A53,MEG!E53)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F53" s="70" t="n">
         <v>1</v>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="E54" s="70" t="n">
         <f aca="false">IF(mmn!A54=MEG!A54,MEG!E54)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F54" s="70" t="n">
         <v>1</v>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="E55" s="70" t="n">
         <f aca="false">IF(mmn!A55=MEG!A55,MEG!E55)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F55" s="70" t="n">
         <v>1</v>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="E56" s="70" t="n">
         <f aca="false">IF(mmn!A56=MEG!A56,MEG!E56)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F56" s="70" t="n">
         <v>1</v>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="E57" s="70" t="n">
         <f aca="false">IF(mmn!A57=MEG!A57,MEG!E57)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F57" s="70" t="n">
         <v>1</v>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="E58" s="70" t="n">
         <f aca="false">IF(mmn!A58=MEG!A58,MEG!E58)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F58" s="70" t="n">
         <v>1</v>
@@ -15321,7 +15321,7 @@
       </c>
       <c r="E59" s="70" t="n">
         <f aca="false">IF(mmn!A59=MEG!A59,MEG!E59)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F59" s="70" t="n">
         <v>1</v>
@@ -15410,7 +15410,7 @@
       </c>
       <c r="E60" s="70" t="n">
         <f aca="false">IF(mmn!A60=MEG!A60,MEG!E60)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F60" s="70" t="n">
         <v>1</v>
@@ -15460,7 +15460,7 @@
         <v>7</v>
       </c>
       <c r="U60" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V60" s="74" t="s">
         <v>297</v>
@@ -15475,7 +15475,7 @@
       <c r="AB60" s="72"/>
       <c r="AC60" s="72"/>
       <c r="AD60" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE60" s="72" t="n">
         <f aca="false">7*16</f>
@@ -15500,7 +15500,7 @@
       </c>
       <c r="E61" s="70" t="n">
         <f aca="false">IF(mmn!A61=MEG!A61,MEG!E61)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="70" t="n">
         <v>1</v>
@@ -15550,7 +15550,7 @@
         <v>7</v>
       </c>
       <c r="U61" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V61" s="74" t="s">
         <v>297</v>
@@ -15565,7 +15565,7 @@
       <c r="AB61" s="72"/>
       <c r="AC61" s="72"/>
       <c r="AD61" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE61" s="72" t="n">
         <f aca="false">7*16</f>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="E62" s="70" t="n">
         <f aca="false">IF(mmn!A62=MEG!A62,MEG!E62)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F62" s="70" t="n">
         <v>1</v>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="E63" s="70" t="n">
         <f aca="false">IF(mmn!A63=MEG!A63,MEG!E63)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F63" s="70" t="n">
         <v>1</v>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="E64" s="70" t="n">
         <f aca="false">IF(mmn!A64=MEG!A64,MEG!E64)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F64" s="70" t="n">
         <v>1</v>
@@ -15837,7 +15837,7 @@
       <c r="AB64" s="72"/>
       <c r="AC64" s="72"/>
       <c r="AD64" s="72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE64" s="72" t="n">
         <f aca="false">7*16+3</f>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="E65" s="70" t="n">
         <f aca="false">IF(mmn!A65=MEG!A65,MEG!E65)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F65" s="70" t="n">
         <v>1</v>
@@ -15931,7 +15931,7 @@
       <c r="AB65" s="72"/>
       <c r="AC65" s="72"/>
       <c r="AD65" s="72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE65" s="72" t="n">
         <f aca="false">7*16+3</f>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="E66" s="70" t="n">
         <f aca="false">IF(mmn!A66=MEG!A66,MEG!E66)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F66" s="70" t="n">
         <v>1</v>
@@ -16025,7 +16025,7 @@
       <c r="AB66" s="72"/>
       <c r="AC66" s="72"/>
       <c r="AD66" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE66" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="E67" s="70" t="n">
         <f aca="false">IF(mmn!A67=MEG!A67,MEG!E67)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F67" s="70" t="n">
         <v>1</v>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="E68" s="70" t="n">
         <f aca="false">IF(mmn!A68=MEG!A68,MEG!E68)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F68" s="70" t="n">
         <v>1</v>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="E69" s="70" t="n">
         <f aca="false">IF(mmn!A69=MEG!A69,MEG!E69)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F69" s="70" t="n">
         <v>1</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="U69" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V69" s="74" t="s">
         <v>297</v>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="E70" s="70" t="n">
         <f aca="false">IF(mmn!A70=MEG!A70,MEG!E70)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="70" t="n">
         <v>1</v>
@@ -16370,7 +16370,7 @@
         <v>7</v>
       </c>
       <c r="U70" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V70" s="74" t="s">
         <v>297</v>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="E71" s="70" t="n">
         <f aca="false">IF(mmn!A71=MEG!A71,MEG!E71)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F71" s="70" t="n">
         <v>1</v>
@@ -16500,7 +16500,7 @@
       </c>
       <c r="E72" s="70" t="n">
         <f aca="false">IF(mmn!A72=MEG!A72,MEG!E72)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F72" s="70" t="n">
         <v>1</v>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="E73" s="70" t="n">
         <f aca="false">IF(mmn!A73=MEG!A73,MEG!E73)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F73" s="70" t="n">
         <v>1</v>
@@ -16640,7 +16640,7 @@
         <v>7</v>
       </c>
       <c r="U73" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V73" s="74" t="s">
         <v>297</v>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="E74" s="70" t="n">
         <f aca="false">IF(mmn!A74=MEG!A74,MEG!E74)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F74" s="70" t="n">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>7</v>
       </c>
       <c r="U74" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V74" s="74" t="s">
         <v>297</v>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="E75" s="70" t="n">
         <f aca="false">IF(mmn!A75=MEG!A75,MEG!E75)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F75" s="70" t="n">
         <v>1</v>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="E76" s="70" t="n">
         <f aca="false">IF(mmn!A76=MEG!A76,MEG!E76)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F76" s="70" t="n">
         <v>1</v>
@@ -16910,7 +16910,7 @@
         <v>6</v>
       </c>
       <c r="U76" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V76" s="74" t="s">
         <v>297</v>
@@ -16950,7 +16950,7 @@
       </c>
       <c r="E77" s="70" t="n">
         <f aca="false">IF(mmn!A77=MEG!A77,MEG!E77)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F77" s="70" t="n">
         <v>1</v>
@@ -17000,7 +17000,7 @@
         <v>6</v>
       </c>
       <c r="U77" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V77" s="74" t="s">
         <v>297</v>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="E78" s="70" t="n">
         <f aca="false">IF(mmn!A78=MEG!A78,MEG!E78)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F78" s="70" t="n">
         <v>1</v>
@@ -17090,7 +17090,7 @@
         <v>7</v>
       </c>
       <c r="U78" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V78" s="74" t="s">
         <v>297</v>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="E79" s="70" t="n">
         <f aca="false">IF(mmn!A79=MEG!A79,MEG!E79)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F79" s="70" t="n">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>7</v>
       </c>
       <c r="U79" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V79" s="74" t="s">
         <v>297</v>
@@ -17219,7 +17219,7 @@
       </c>
       <c r="E80" s="70" t="n">
         <f aca="false">IF(mmn!A80=MEG!A80,MEG!E80)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F80" s="70" t="n">
         <v>1</v>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="E81" s="70" t="n">
         <f aca="false">IF(mmn!A81=MEG!A81,MEG!E81)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F81" s="70" t="n">
         <v>1</v>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="E84" s="70" t="n">
         <f aca="false">IF(mmn!A84=MEG!A84,MEG!E84)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F84" s="70" t="n">
         <v>1</v>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="E85" s="70" t="n">
         <f aca="false">IF(mmn!A85=MEG!A85,MEG!E85)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F85" s="70" t="n">
         <v>1</v>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="E86" s="70" t="n">
         <f aca="false">IF(mmn!A86=MEG!A86,MEG!E86)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F86" s="70" t="n">
         <v>1</v>
@@ -17879,11 +17879,11 @@
         <v>403</v>
       </c>
       <c r="D87" s="71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E87" s="70" t="n">
         <f aca="false">IF(mmn!A87=MEG!A87,MEG!E87)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F87" s="70" t="n">
         <v>1</v>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E88" s="70" t="n">
         <f aca="false">IF(mmn!A88=MEG!A88,MEG!E88)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F88" s="70" t="n">
         <v>1</v>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="E89" s="70" t="n">
         <f aca="false">IF(mmn!A89=MEG!A89,MEG!E89)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F89" s="70" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="E90" s="70" t="n">
         <f aca="false">IF(mmn!A90=MEG!A90,MEG!E90)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F90" s="70" t="n">
         <v>1</v>
@@ -18248,7 +18248,7 @@
       </c>
       <c r="E91" s="70" t="n">
         <f aca="false">IF(mmn!A91=MEG!A91,MEG!E91)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F91" s="70" t="n">
         <v>1</v>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="E92" s="70" t="n">
         <f aca="false">IF(mmn!A92=MEG!A92,MEG!E92)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F92" s="70" t="n">
         <v>1</v>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="E93" s="70" t="n">
         <f aca="false">IF(mmn!A93=MEG!A93,MEG!E93)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F93" s="70" t="n">
         <v>1</v>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="E94" s="70" t="n">
         <f aca="false">IF(mmn!A94=MEG!A94,MEG!E94)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F94" s="70" t="n">
         <v>1</v>
@@ -18605,7 +18605,7 @@
         <v>42503</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D95" s="71" t="s">
         <v>296</v>
@@ -18695,14 +18695,14 @@
         <v>42395</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D96" s="71" t="s">
         <v>310</v>
       </c>
       <c r="E96" s="70" t="n">
         <f aca="false">IF(mmn!A96=MEG!A96,MEG!E96)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="70" t="n">
         <v>1</v>
@@ -18796,7 +18796,7 @@
       </c>
       <c r="E97" s="70" t="n">
         <f aca="false">IF(mmn!A97=MEG!A97,MEG!E97)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F97" s="70" t="n">
         <v>1</v>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="E98" s="70" t="n">
         <f aca="false">IF(mmn!A98=MEG!A98,MEG!E98)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F98" s="70" t="n">
         <v>1</v>
@@ -18984,7 +18984,7 @@
       </c>
       <c r="E99" s="70" t="n">
         <f aca="false">IF(mmn!A99=MEG!A99,MEG!E99)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F99" s="70" t="n">
         <v>1</v>
@@ -19071,14 +19071,14 @@
         <v>42411</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D100" s="71" t="s">
         <v>310</v>
       </c>
       <c r="E100" s="70" t="n">
         <f aca="false">IF(mmn!A100=MEG!A100,MEG!E100)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F100" s="70" t="n">
         <v>1</v>
@@ -19167,7 +19167,7 @@
       </c>
       <c r="E101" s="70" t="n">
         <f aca="false">IF(mmn!A101=MEG!A101,MEG!E101)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F101" s="70" t="n">
         <v>1</v>
@@ -19259,7 +19259,7 @@
       </c>
       <c r="E102" s="70" t="n">
         <f aca="false">IF(mmn!A102=MEG!A102,MEG!E102)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F102" s="70" t="n">
         <v>1</v>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="E103" s="70" t="n">
         <f aca="false">IF(mmn!A103=MEG!A103,MEG!E103)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F103" s="70" t="n">
         <v>1</v>
@@ -19440,7 +19440,7 @@
       </c>
       <c r="E104" s="70" t="n">
         <f aca="false">IF(mmn!A104=MEG!A104,MEG!E104)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F104" s="70" t="n">
         <v>1</v>
@@ -19530,7 +19530,7 @@
       </c>
       <c r="E105" s="70" t="n">
         <f aca="false">IF(mmn!A105=MEG!A105,MEG!E105)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F105" s="70" t="n">
         <v>1</v>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E106" s="70" t="n">
         <f aca="false">IF(mmn!A106=MEG!A106,MEG!E106)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F106" s="70" t="n">
         <v>1</v>
@@ -19710,7 +19710,7 @@
       </c>
       <c r="E107" s="70" t="n">
         <f aca="false">IF(mmn!A107=MEG!A107,MEG!E107)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F107" s="70" t="n">
         <v>1</v>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="E108" s="70" t="n">
         <f aca="false">IF(mmn!A108=MEG!A108,MEG!E108)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F108" s="70" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
       </c>
       <c r="E109" s="70" t="n">
         <f aca="false">IF(mmn!A109=MEG!A109,MEG!E109)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F109" s="70" t="n">
         <v>1</v>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="E110" s="70" t="n">
         <f aca="false">IF(mmn!A110=MEG!A110,MEG!E110)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F110" s="70" t="n">
         <v>1</v>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="E111" s="70" t="n">
         <f aca="false">IF(mmn!A111=MEG!A111,MEG!E111)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F111" s="70" t="n">
         <v>1</v>
@@ -20152,7 +20152,7 @@
       </c>
       <c r="E112" s="70" t="n">
         <f aca="false">IF(mmn!A112=MEG!A112,MEG!E112)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F112" s="70" t="n">
         <v>1</v>
@@ -20217,7 +20217,7 @@
       <c r="AB112" s="72"/>
       <c r="AC112" s="72"/>
       <c r="AD112" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE112" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -20242,7 +20242,7 @@
       </c>
       <c r="E113" s="70" t="n">
         <f aca="false">IF(mmn!A113=MEG!A113,MEG!E113)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F113" s="70" t="n">
         <v>1</v>
@@ -20307,7 +20307,7 @@
       <c r="AB113" s="72"/>
       <c r="AC113" s="72"/>
       <c r="AD113" s="72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE113" s="72" t="n">
         <f aca="false">6*16+15</f>
@@ -20332,7 +20332,7 @@
       </c>
       <c r="E114" s="70" t="n">
         <f aca="false">IF(mmn!A114=MEG!A114,MEG!E114)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F114" s="70" t="n">
         <v>1</v>
@@ -20422,7 +20422,7 @@
       </c>
       <c r="E115" s="70" t="n">
         <f aca="false">IF(mmn!A115=MEG!A115,MEG!E115)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F115" s="70" t="n">
         <v>1</v>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="E116" s="70" t="n">
         <f aca="false">IF(mmn!A116=MEG!A116,MEG!E116)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F116" s="70" t="n">
         <v>1</v>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="E117" s="70" t="n">
         <f aca="false">IF(mmn!A117=MEG!A117,MEG!E117)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F117" s="70" t="n">
         <v>1</v>
@@ -20705,7 +20705,7 @@
   <dimension ref="A1:AMJ117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C13 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D14 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20715,7 +20715,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="6" style="81" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="81" width="15.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="13" style="81" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="82" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="82" width="16.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="82" width="17.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="23" style="81" width="11.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1022" style="62" width="11.5"/>
@@ -21836,10 +21836,10 @@
         <v>6</v>
       </c>
       <c r="U15" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V15" s="89" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W15" s="81" t="n">
         <v>0</v>
@@ -21860,7 +21860,7 @@
         <v>42462</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>296</v>
@@ -21905,10 +21905,10 @@
         <v>6</v>
       </c>
       <c r="U16" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V16" s="89" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W16" s="81" t="n">
         <v>0</v>
@@ -21977,7 +21977,7 @@
         <v>297</v>
       </c>
       <c r="V17" s="89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W17" s="81" t="n">
         <v>2</v>
@@ -21995,7 +21995,7 @@
         <v>67</v>
       </c>
       <c r="AD17" s="81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE17" s="81" t="n">
         <f aca="false">7*16</f>
@@ -22010,7 +22010,7 @@
         <v>42452</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>310</v>
@@ -22058,7 +22058,7 @@
         <v>297</v>
       </c>
       <c r="V18" s="89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W18" s="81" t="n">
         <v>2</v>
@@ -22076,7 +22076,7 @@
         <v>67</v>
       </c>
       <c r="AD18" s="81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE18" s="81" t="n">
         <f aca="false">7*16</f>
@@ -22160,7 +22160,7 @@
         <v>60</v>
       </c>
       <c r="AD19" s="81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AE19" s="81" t="n">
         <f aca="false">8*16+11</f>
@@ -22220,7 +22220,7 @@
         <v>6</v>
       </c>
       <c r="U20" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V20" s="89" t="s">
         <v>297</v>
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE20" s="81" t="n">
         <f aca="false">7*16+3</f>
@@ -22247,7 +22247,7 @@
         <v>295</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E21" s="81" t="n">
         <v>1800</v>
@@ -22289,7 +22289,7 @@
         <v>6</v>
       </c>
       <c r="U21" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V21" s="89" t="s">
         <v>297</v>
@@ -22298,7 +22298,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE21" s="81" t="n">
         <f aca="false">7*16+3</f>
@@ -22313,10 +22313,10 @@
         <v>42332</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E22" s="81" t="n">
         <v>1800</v>
@@ -22358,10 +22358,10 @@
         <v>5</v>
       </c>
       <c r="U22" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V22" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W22" s="81" t="n">
         <v>1</v>
@@ -22373,7 +22373,7 @@
         <v>67</v>
       </c>
       <c r="AD22" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE22" s="81" t="n">
         <f aca="false">6*16+11</f>
@@ -22388,7 +22388,7 @@
         <v>42451</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>296</v>
@@ -22433,10 +22433,10 @@
         <v>5</v>
       </c>
       <c r="U23" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V23" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W23" s="81" t="n">
         <v>1</v>
@@ -22448,7 +22448,7 @@
         <v>67</v>
       </c>
       <c r="AD23" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE23" s="81" t="n">
         <f aca="false">6*16+11</f>
@@ -22511,7 +22511,7 @@
         <v>297</v>
       </c>
       <c r="V24" s="89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W24" s="81" t="n">
         <v>2</v>
@@ -22529,7 +22529,7 @@
         <v>60</v>
       </c>
       <c r="AD24" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE24" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -22544,7 +22544,7 @@
         <v>42464</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D25" s="82" t="s">
         <v>310</v>
@@ -22592,7 +22592,7 @@
         <v>297</v>
       </c>
       <c r="V25" s="89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W25" s="81" t="n">
         <v>2</v>
@@ -22610,7 +22610,7 @@
         <v>60</v>
       </c>
       <c r="AD25" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE25" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="Z27" s="90"/>
       <c r="AD27" s="81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE27" s="81" t="n">
         <f aca="false">7*16</f>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z28" s="90"/>
       <c r="AD28" s="81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE28" s="81" t="n">
         <f aca="false">7*16</f>
@@ -23296,7 +23296,7 @@
         <v>348</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E35" s="81" t="n">
         <v>1800</v>
@@ -23488,7 +23488,7 @@
         <v>3</v>
       </c>
       <c r="U37" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V37" s="89" t="s">
         <v>304</v>
@@ -23563,7 +23563,7 @@
         <v>3</v>
       </c>
       <c r="U38" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V38" s="89" t="s">
         <v>304</v>
@@ -23641,7 +23641,7 @@
         <v>4</v>
       </c>
       <c r="U39" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V39" s="89" t="s">
         <v>354</v>
@@ -23716,7 +23716,7 @@
         <v>4</v>
       </c>
       <c r="U40" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V40" s="89" t="s">
         <v>354</v>
@@ -23818,7 +23818,7 @@
         <v>60</v>
       </c>
       <c r="AD41" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE41" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -23878,7 +23878,7 @@
         <v>6</v>
       </c>
       <c r="U42" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V42" s="89" t="s">
         <v>358</v>
@@ -23965,7 +23965,7 @@
         <v>6</v>
       </c>
       <c r="U43" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V43" s="89" t="s">
         <v>358</v>
@@ -24229,7 +24229,7 @@
         <v>363</v>
       </c>
       <c r="V46" s="89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W46" s="81" t="n">
         <v>1</v>
@@ -24319,7 +24319,7 @@
         <v>67</v>
       </c>
       <c r="AD47" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE47" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -24601,7 +24601,7 @@
         <v>6</v>
       </c>
       <c r="U51" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V51" s="89" t="s">
         <v>297</v>
@@ -24670,7 +24670,7 @@
         <v>6</v>
       </c>
       <c r="U52" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V52" s="89" t="s">
         <v>297</v>
@@ -25252,7 +25252,7 @@
         <v>7</v>
       </c>
       <c r="U60" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V60" s="89" t="s">
         <v>297</v>
@@ -25261,7 +25261,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE60" s="81" t="n">
         <f aca="false">7*16</f>
@@ -25279,7 +25279,7 @@
         <v>295</v>
       </c>
       <c r="D61" s="82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E61" s="81" t="n">
         <v>1800</v>
@@ -25321,7 +25321,7 @@
         <v>7</v>
       </c>
       <c r="U61" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V61" s="89" t="s">
         <v>297</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE61" s="81" t="n">
         <f aca="false">7*16</f>
@@ -25543,7 +25543,7 @@
         <v>67</v>
       </c>
       <c r="AD64" s="81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE64" s="81" t="n">
         <f aca="false">7*16+3</f>
@@ -25618,7 +25618,7 @@
         <v>67</v>
       </c>
       <c r="AD65" s="81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE65" s="81" t="n">
         <f aca="false">7*16+3</f>
@@ -25693,7 +25693,7 @@
         <v>60</v>
       </c>
       <c r="AD66" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE66" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -25887,7 +25887,7 @@
         <v>7</v>
       </c>
       <c r="U69" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V69" s="89" t="s">
         <v>297</v>
@@ -25956,7 +25956,7 @@
         <v>7</v>
       </c>
       <c r="U70" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V70" s="89" t="s">
         <v>297</v>
@@ -26163,7 +26163,7 @@
         <v>7</v>
       </c>
       <c r="U73" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V73" s="89" t="s">
         <v>297</v>
@@ -26235,7 +26235,7 @@
         <v>7</v>
       </c>
       <c r="U74" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V74" s="89" t="s">
         <v>297</v>
@@ -26373,7 +26373,7 @@
         <v>6</v>
       </c>
       <c r="U76" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V76" s="89" t="s">
         <v>297</v>
@@ -26442,7 +26442,7 @@
         <v>6</v>
       </c>
       <c r="U77" s="89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V77" s="89" t="s">
         <v>297</v>
@@ -26511,7 +26511,7 @@
         <v>7</v>
       </c>
       <c r="U78" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V78" s="89" t="s">
         <v>297</v>
@@ -26580,7 +26580,7 @@
         <v>7</v>
       </c>
       <c r="U79" s="89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V79" s="89" t="s">
         <v>297</v>
@@ -27704,7 +27704,7 @@
         <v>42503</v>
       </c>
       <c r="C95" s="82" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D95" s="82" t="s">
         <v>382</v>
@@ -27773,7 +27773,7 @@
         <v>42395</v>
       </c>
       <c r="C96" s="82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D96" s="82" t="s">
         <v>296</v>
@@ -28073,7 +28073,7 @@
         <v>42411</v>
       </c>
       <c r="C100" s="82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D100" s="82" t="s">
         <v>296</v>
@@ -28844,7 +28844,7 @@
         <v>374</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E111" s="81" t="n">
         <v>1800</v>
@@ -28951,7 +28951,7 @@
         <v>0</v>
       </c>
       <c r="AD112" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE112" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -29020,7 +29020,7 @@
         <v>0</v>
       </c>
       <c r="AD113" s="81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AE113" s="81" t="n">
         <f aca="false">6*16+15</f>
@@ -29312,14 +29312,14 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C13 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D14 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.17"/>
@@ -29378,13 +29378,13 @@
       <c r="B2" s="20" t="n">
         <v>42262</v>
       </c>
-      <c r="C2" s="18" t="str">
+      <c r="C2" s="18" t="n">
         <f aca="false">IF(ids!A2=MEG!A2,MEG!C2)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D2" s="25" t="n">
         <f aca="false">IF(ids!B2=MEG!B2,MEG!E2)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E2" s="25" t="n">
         <v>1</v>
@@ -29424,13 +29424,13 @@
       <c r="B3" s="26" t="n">
         <v>42293</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C3" s="18" t="n">
         <f aca="false">IF(ids!A3=MEG!A3,MEG!C3)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D3" s="25" t="n">
         <f aca="false">IF(ids!B3=MEG!B3,MEG!E3)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E3" s="25" t="n">
         <v>1</v>
@@ -29470,13 +29470,13 @@
       <c r="B4" s="26" t="n">
         <v>42276</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="18" t="n">
         <f aca="false">IF(ids!A4=MEG!A4,MEG!C4)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D4" s="25" t="n">
         <f aca="false">IF(ids!B4=MEG!B4,MEG!E4)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E4" s="25" t="n">
         <v>1</v>
@@ -29516,13 +29516,13 @@
       <c r="B5" s="26" t="n">
         <v>42286</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="18" t="n">
         <f aca="false">IF(ids!A5=MEG!A5,MEG!C5)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D5" s="25" t="n">
         <f aca="false">IF(ids!B5=MEG!B5,MEG!E5)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E5" s="25" t="n">
         <v>1</v>
@@ -29562,13 +29562,13 @@
       <c r="B6" s="26" t="n">
         <v>42279</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="18" t="n">
         <f aca="false">IF(ids!A6=MEG!A6,MEG!C6)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D6" s="25" t="n">
         <f aca="false">IF(ids!B6=MEG!B6,MEG!E6)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E6" s="25" t="n">
         <v>1</v>
@@ -29608,13 +29608,13 @@
       <c r="B7" s="26" t="n">
         <v>42286</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="18" t="n">
         <f aca="false">IF(ids!A7=MEG!A7,MEG!C7)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D7" s="25" t="n">
         <f aca="false">IF(ids!B7=MEG!B7,MEG!E7)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E7" s="25" t="n">
         <v>1</v>
@@ -29656,13 +29656,13 @@
       <c r="B8" s="26" t="n">
         <v>42314</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="18" t="n">
         <f aca="false">IF(ids!A8=MEG!A8,MEG!C8)</f>
-        <v>0141</v>
+        <v>0</v>
       </c>
       <c r="D8" s="25" t="n">
         <f aca="false">IF(ids!B8=MEG!B8,MEG!E8)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E8" s="25" t="n">
         <v>1</v>
@@ -29702,13 +29702,13 @@
       <c r="B9" s="26" t="n">
         <v>42310</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="18" t="n">
         <f aca="false">IF(ids!A9=MEG!A9,MEG!C9)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">IF(ids!B9=MEG!B9,MEG!E9)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E9" s="25" t="n">
         <v>1</v>
@@ -29748,13 +29748,13 @@
       <c r="B10" s="26" t="n">
         <v>42313</v>
       </c>
-      <c r="C10" s="18" t="str">
+      <c r="C10" s="18" t="n">
         <f aca="false">IF(ids!A10=MEG!A10,MEG!C10)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">IF(ids!B10=MEG!B10,MEG!E10)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E10" s="25" t="n">
         <v>1</v>
@@ -29794,13 +29794,13 @@
       <c r="B11" s="30" t="n">
         <v>42300</v>
       </c>
-      <c r="C11" s="18" t="str">
+      <c r="C11" s="18" t="n">
         <f aca="false">IF(ids!A11=MEG!A11,MEG!C11)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D11" s="25" t="n">
         <f aca="false">IF(ids!B11=MEG!B11,MEG!E11)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E11" s="25" t="n">
         <v>1</v>
@@ -29840,13 +29840,13 @@
       <c r="B12" s="30" t="n">
         <v>42304</v>
       </c>
-      <c r="C12" s="18" t="str">
+      <c r="C12" s="18" t="n">
         <f aca="false">IF(ids!A12=MEG!A12,MEG!C12)</f>
-        <v>0111</v>
+        <v>0</v>
       </c>
       <c r="D12" s="25" t="n">
         <f aca="false">IF(ids!B12=MEG!B12,MEG!E12)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E12" s="23" t="n">
         <v>1</v>
@@ -29886,13 +29886,13 @@
       <c r="B13" s="30" t="n">
         <v>42320</v>
       </c>
-      <c r="C13" s="18" t="str">
+      <c r="C13" s="18" t="n">
         <f aca="false">IF(ids!A13=MEG!A13,MEG!C13)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D13" s="25" t="n">
         <f aca="false">IF(ids!B13=MEG!B13,MEG!E13)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E13" s="23" t="n">
         <v>1</v>
@@ -29932,13 +29932,13 @@
       <c r="B14" s="26" t="n">
         <v>42320</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C14" s="18" t="n">
         <f aca="false">IF(ids!A14=MEG!A14,MEG!C14)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D14" s="25" t="n">
         <f aca="false">IF(ids!B14=MEG!B14,MEG!E14)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="25" t="n">
         <v>1</v>
@@ -29978,13 +29978,13 @@
       <c r="B15" s="26" t="n">
         <v>42321</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="18" t="n">
         <f aca="false">IF(ids!A15=MEG!A15,MEG!C15)</f>
-        <v>0111</v>
+        <v>0</v>
       </c>
       <c r="D15" s="25" t="n">
         <f aca="false">IF(ids!B15=MEG!B15,MEG!E15)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E15" s="23" t="n">
         <v>1</v>
@@ -30024,13 +30024,13 @@
       <c r="B16" s="30" t="n">
         <v>42462</v>
       </c>
-      <c r="C16" s="18" t="str">
+      <c r="C16" s="18" t="n">
         <f aca="false">IF(ids!A16=MEG!A16,MEG!C16)</f>
-        <v>0114</v>
+        <v>0</v>
       </c>
       <c r="D16" s="25" t="n">
         <f aca="false">IF(ids!B16=MEG!B16,MEG!E16)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E16" s="25" t="n">
         <v>1</v>
@@ -30070,13 +30070,13 @@
       <c r="B17" s="26" t="n">
         <v>42326</v>
       </c>
-      <c r="C17" s="18" t="str">
+      <c r="C17" s="18" t="n">
         <f aca="false">IF(ids!A17=MEG!A17,MEG!C17)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D17" s="25" t="n">
         <f aca="false">IF(ids!B17=MEG!B17,MEG!E17)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E17" s="25" t="n">
         <v>1</v>
@@ -30116,13 +30116,13 @@
       <c r="B18" s="30" t="n">
         <v>42452</v>
       </c>
-      <c r="C18" s="18" t="str">
+      <c r="C18" s="18" t="n">
         <f aca="false">IF(ids!A18=MEG!A18,MEG!C18)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D18" s="25" t="n">
         <f aca="false">IF(ids!B18=MEG!B18,MEG!E18)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E18" s="25" t="n">
         <v>1</v>
@@ -30162,13 +30162,13 @@
       <c r="B19" s="26" t="n">
         <v>42309</v>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="18" t="n">
         <f aca="false">IF(ids!A19=MEG!A19,MEG!C19)</f>
-        <v>0141</v>
+        <v>0</v>
       </c>
       <c r="D19" s="25" t="n">
         <f aca="false">IF(ids!B19=MEG!B19,MEG!E19)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E19" s="25" t="n">
         <v>1</v>
@@ -30208,13 +30208,13 @@
       <c r="B20" s="26" t="n">
         <v>42325</v>
       </c>
-      <c r="C20" s="18" t="str">
+      <c r="C20" s="18" t="n">
         <f aca="false">IF(ids!A20=MEG!A20,MEG!C20)</f>
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="D20" s="25" t="n">
         <f aca="false">IF(ids!B20=MEG!B20,MEG!E20)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E20" s="25" t="n">
         <v>1</v>
@@ -30254,13 +30254,13 @@
       <c r="B21" s="30" t="n">
         <v>42466</v>
       </c>
-      <c r="C21" s="25" t="str">
+      <c r="C21" s="25" t="n">
         <f aca="false">IF(ids!A21=MEG!A21,MEG!C21)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D21" s="25" t="n">
         <f aca="false">IF(ids!B21=MEG!B21,MEG!E21)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E21" s="25" t="n">
         <v>1</v>
@@ -30300,13 +30300,13 @@
       <c r="B22" s="26" t="n">
         <v>42332</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="18" t="n">
         <f aca="false">IF(ids!A22=MEG!A22,MEG!C22)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D22" s="25" t="n">
         <f aca="false">IF(ids!B22=MEG!B22,MEG!E22)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E22" s="25" t="n">
         <v>1</v>
@@ -30346,13 +30346,13 @@
       <c r="B23" s="30" t="n">
         <v>42451</v>
       </c>
-      <c r="C23" s="18" t="str">
+      <c r="C23" s="18" t="n">
         <f aca="false">IF(ids!A23=MEG!A23,MEG!C23)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D23" s="25" t="n">
         <f aca="false">IF(ids!B23=MEG!B23,MEG!E23)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E23" s="25" t="n">
         <v>1</v>
@@ -30392,13 +30392,13 @@
       <c r="B24" s="26" t="n">
         <v>42339</v>
       </c>
-      <c r="C24" s="18" t="str">
+      <c r="C24" s="18" t="n">
         <f aca="false">IF(ids!A24=MEG!A24,MEG!C24)</f>
-        <v>0111</v>
+        <v>0</v>
       </c>
       <c r="D24" s="25" t="n">
         <f aca="false">IF(ids!B24=MEG!B24,MEG!E24)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E24" s="23" t="n">
         <v>1</v>
@@ -30438,13 +30438,13 @@
       <c r="B25" s="30" t="n">
         <v>42464</v>
       </c>
-      <c r="C25" s="25" t="str">
+      <c r="C25" s="25" t="n">
         <f aca="false">IF(ids!A25=MEG!A25,MEG!C25)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D25" s="25" t="n">
         <f aca="false">IF(ids!B25=MEG!B25,MEG!E25)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E25" s="25" t="n">
         <v>1</v>
@@ -30484,13 +30484,13 @@
       <c r="B26" s="26" t="n">
         <v>42342</v>
       </c>
-      <c r="C26" s="18" t="str">
+      <c r="C26" s="18" t="n">
         <f aca="false">IF(ids!A26=MEG!A26,MEG!C26)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D26" s="25" t="n">
         <f aca="false">IF(ids!B26=MEG!B26,MEG!E26)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E26" s="25" t="n">
         <v>1</v>
@@ -30530,13 +30530,13 @@
       <c r="B27" s="26" t="n">
         <v>42349</v>
       </c>
-      <c r="C27" s="18" t="str">
+      <c r="C27" s="18" t="n">
         <f aca="false">IF(ids!A27=MEG!A27,MEG!C27)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D27" s="25" t="n">
         <f aca="false">IF(ids!B27=MEG!B27,MEG!E27)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E27" s="25" t="n">
         <v>1</v>
@@ -30578,11 +30578,11 @@
       </c>
       <c r="C28" s="25" t="n">
         <f aca="false">IF(ids!A28=MEG!A28,MEG!C28)</f>
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D28" s="25" t="n">
         <f aca="false">IF(ids!B28=MEG!B28,MEG!E28)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E28" s="25" t="n">
         <v>1</v>
@@ -30622,13 +30622,13 @@
       <c r="B29" s="26" t="n">
         <v>42374</v>
       </c>
-      <c r="C29" s="18" t="str">
+      <c r="C29" s="18" t="n">
         <f aca="false">IF(ids!A29=MEG!A29,MEG!C29)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D29" s="25" t="n">
         <f aca="false">IF(ids!B29=MEG!B29,MEG!E29)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E29" s="25" t="n">
         <v>1</v>
@@ -30668,13 +30668,13 @@
       <c r="B30" s="26" t="n">
         <v>42383</v>
       </c>
-      <c r="C30" s="18" t="str">
+      <c r="C30" s="18" t="n">
         <f aca="false">IF(ids!A30=MEG!A30,MEG!C30)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D30" s="25" t="n">
         <f aca="false">IF(ids!B30=MEG!B30,MEG!E30)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E30" s="25" t="n">
         <v>1</v>
@@ -30714,13 +30714,13 @@
       <c r="B31" s="26" t="n">
         <v>42394</v>
       </c>
-      <c r="C31" s="18" t="str">
+      <c r="C31" s="18" t="n">
         <f aca="false">IF(ids!A31=MEG!A31,MEG!C31)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D31" s="25" t="n">
         <f aca="false">IF(ids!B31=MEG!B31,MEG!E31)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E31" s="25" t="n">
         <v>1</v>
@@ -30760,13 +30760,13 @@
       <c r="B32" s="26" t="n">
         <v>42528</v>
       </c>
-      <c r="C32" s="18" t="str">
+      <c r="C32" s="18" t="n">
         <f aca="false">IF(ids!A32=MEG!A32,MEG!C32)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D32" s="25" t="n">
         <f aca="false">IF(ids!B32=MEG!B32,MEG!E32)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E32" s="25" t="n">
         <v>1</v>
@@ -30806,13 +30806,13 @@
       <c r="B33" s="26" t="n">
         <v>42395</v>
       </c>
-      <c r="C33" s="18" t="str">
+      <c r="C33" s="18" t="n">
         <f aca="false">IF(ids!A33=MEG!A33,MEG!C33)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D33" s="25" t="n">
         <f aca="false">IF(ids!B33=MEG!B33,MEG!E33)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E33" s="25" t="n">
         <v>1</v>
@@ -30852,13 +30852,13 @@
       <c r="B34" s="26" t="n">
         <v>42534</v>
       </c>
-      <c r="C34" s="18" t="str">
+      <c r="C34" s="18" t="n">
         <f aca="false">IF(ids!A34=MEG!A34,MEG!C34)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D34" s="25" t="n">
         <f aca="false">IF(ids!B34=MEG!B34,MEG!E34)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E34" s="25" t="n">
         <v>1</v>
@@ -30898,13 +30898,13 @@
       <c r="B35" s="26" t="n">
         <v>42398</v>
       </c>
-      <c r="C35" s="18" t="str">
+      <c r="C35" s="18" t="n">
         <f aca="false">IF(ids!A35=MEG!A35,MEG!C35)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D35" s="25" t="n">
         <f aca="false">IF(ids!B35=MEG!B35,MEG!E35)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E35" s="25" t="n">
         <v>1</v>
@@ -30944,13 +30944,13 @@
       <c r="B36" s="26" t="n">
         <v>42535</v>
       </c>
-      <c r="C36" s="18" t="str">
+      <c r="C36" s="18" t="n">
         <f aca="false">IF(ids!A36=MEG!A36,MEG!C36)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D36" s="25" t="n">
         <f aca="false">IF(ids!B36=MEG!B36,MEG!E36)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>429</v>
@@ -30990,13 +30990,13 @@
       <c r="B37" s="26" t="n">
         <v>42410</v>
       </c>
-      <c r="C37" s="18" t="str">
+      <c r="C37" s="18" t="n">
         <f aca="false">IF(ids!A37=MEG!A37,MEG!C37)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D37" s="25" t="n">
         <f aca="false">IF(ids!B37=MEG!B37,MEG!E37)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E37" s="25" t="n">
         <v>1</v>
@@ -31036,13 +31036,13 @@
       <c r="B38" s="26" t="n">
         <v>42558</v>
       </c>
-      <c r="C38" s="18" t="str">
+      <c r="C38" s="18" t="n">
         <f aca="false">IF(ids!A38=MEG!A38,MEG!C38)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D38" s="25" t="n">
         <f aca="false">IF(ids!B38=MEG!B38,MEG!E38)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E38" s="25" t="n">
         <v>1</v>
@@ -31082,13 +31082,13 @@
       <c r="B39" s="26" t="n">
         <v>42426</v>
       </c>
-      <c r="C39" s="18" t="str">
+      <c r="C39" s="18" t="n">
         <f aca="false">IF(ids!A39=MEG!A39,MEG!C39)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D39" s="25" t="n">
         <f aca="false">IF(ids!B39=MEG!B39,MEG!E39)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E39" s="25" t="n">
         <v>1</v>
@@ -31128,13 +31128,13 @@
       <c r="B40" s="26" t="n">
         <v>42550</v>
       </c>
-      <c r="C40" s="18" t="str">
+      <c r="C40" s="18" t="n">
         <f aca="false">IF(ids!A40=MEG!A40,MEG!C40)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D40" s="25" t="n">
         <f aca="false">IF(ids!B40=MEG!B40,MEG!E40)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E40" s="25" t="n">
         <v>1</v>
@@ -31174,13 +31174,13 @@
       <c r="B41" s="26" t="n">
         <v>42467</v>
       </c>
-      <c r="C41" s="25" t="str">
+      <c r="C41" s="25" t="n">
         <f aca="false">IF(ids!A41=MEG!A41,MEG!C41)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D41" s="25" t="n">
         <f aca="false">IF(ids!B41=MEG!B41,MEG!E41)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E41" s="23" t="n">
         <v>1</v>
@@ -31220,13 +31220,13 @@
       <c r="B42" s="26" t="n">
         <v>42467</v>
       </c>
-      <c r="C42" s="25" t="str">
+      <c r="C42" s="25" t="n">
         <f aca="false">IF(ids!A42=MEG!A42,MEG!C42)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D42" s="25" t="n">
         <f aca="false">IF(ids!B42=MEG!B42,MEG!E42)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E42" s="23" t="n">
         <v>1</v>
@@ -31266,13 +31266,13 @@
       <c r="B43" s="26" t="n">
         <v>42598</v>
       </c>
-      <c r="C43" s="18" t="str">
+      <c r="C43" s="18" t="n">
         <f aca="false">IF(ids!A43=MEG!A43,MEG!C43)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D43" s="25" t="n">
         <f aca="false">IF(ids!B43=MEG!B43,MEG!E43)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E43" s="25" t="n">
         <v>1</v>
@@ -31312,13 +31312,13 @@
       <c r="B44" s="26" t="n">
         <v>42475</v>
       </c>
-      <c r="C44" s="18" t="str">
+      <c r="C44" s="18" t="n">
         <f aca="false">IF(ids!A44=MEG!A44,MEG!C44)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D44" s="25" t="n">
         <f aca="false">IF(ids!B44=MEG!B44,MEG!E44)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E44" s="25" t="n">
         <v>1</v>
@@ -31358,13 +31358,13 @@
       <c r="B45" s="26" t="n">
         <v>42604</v>
       </c>
-      <c r="C45" s="18" t="str">
+      <c r="C45" s="18" t="n">
         <f aca="false">IF(ids!A45=MEG!A45,MEG!C45)</f>
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="D45" s="25" t="n">
         <f aca="false">IF(ids!B45=MEG!B45,MEG!E45)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E45" s="25" t="n">
         <v>1</v>
@@ -31404,13 +31404,13 @@
       <c r="B46" s="26" t="n">
         <v>42263</v>
       </c>
-      <c r="C46" s="18" t="str">
+      <c r="C46" s="18" t="n">
         <f aca="false">IF(ids!A46=MEG!A46,MEG!C46)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D46" s="25" t="n">
         <f aca="false">IF(ids!B46=MEG!B46,MEG!E46)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E46" s="25" t="n">
         <v>1</v>
@@ -31450,13 +31450,13 @@
       <c r="B47" s="26" t="n">
         <v>42262</v>
       </c>
-      <c r="C47" s="18" t="str">
+      <c r="C47" s="18" t="n">
         <f aca="false">IF(ids!A47=MEG!A47,MEG!C47)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D47" s="25" t="n">
         <f aca="false">IF(ids!B47=MEG!B47,MEG!E47)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E47" s="25" t="n">
         <v>1</v>
@@ -31496,13 +31496,13 @@
       <c r="B48" s="26" t="n">
         <v>42268</v>
       </c>
-      <c r="C48" s="18" t="str">
+      <c r="C48" s="18" t="n">
         <f aca="false">IF(ids!A48=MEG!A48,MEG!C48)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D48" s="25" t="n">
         <f aca="false">IF(ids!B48=MEG!B48,MEG!E48)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E48" s="25" t="n">
         <v>1</v>
@@ -31542,13 +31542,13 @@
       <c r="B49" s="26" t="n">
         <v>42272</v>
       </c>
-      <c r="C49" s="18" t="str">
+      <c r="C49" s="18" t="n">
         <f aca="false">IF(ids!A49=MEG!A49,MEG!C49)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D49" s="25" t="n">
         <f aca="false">IF(ids!B49=MEG!B49,MEG!E49)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="25" t="n">
         <v>1</v>
@@ -31588,13 +31588,13 @@
       <c r="B50" s="26" t="n">
         <v>42275</v>
       </c>
-      <c r="C50" s="18" t="str">
+      <c r="C50" s="18" t="n">
         <f aca="false">IF(ids!A50=MEG!A50,MEG!C50)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D50" s="25" t="n">
         <f aca="false">IF(ids!B50=MEG!B50,MEG!E50)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E50" s="25" t="n">
         <v>1</v>
@@ -31634,13 +31634,13 @@
       <c r="B51" s="26" t="n">
         <v>42282</v>
       </c>
-      <c r="C51" s="18" t="str">
+      <c r="C51" s="18" t="n">
         <f aca="false">IF(ids!A51=MEG!A51,MEG!C51)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D51" s="25" t="n">
         <f aca="false">IF(ids!B51=MEG!B51,MEG!E51)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E51" s="25" t="n">
         <v>1</v>
@@ -31680,13 +31680,13 @@
       <c r="B52" s="26" t="n">
         <v>42426</v>
       </c>
-      <c r="C52" s="18" t="str">
+      <c r="C52" s="18" t="n">
         <f aca="false">IF(ids!A52=MEG!A52,MEG!C52)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D52" s="25" t="n">
         <f aca="false">IF(ids!B52=MEG!B52,MEG!E52)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E52" s="25" t="n">
         <v>1</v>
@@ -31726,13 +31726,13 @@
       <c r="B53" s="26" t="n">
         <v>42283</v>
       </c>
-      <c r="C53" s="18" t="str">
+      <c r="C53" s="18" t="n">
         <f aca="false">IF(ids!A53=MEG!A53,MEG!C53)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D53" s="25" t="n">
         <f aca="false">IF(ids!B53=MEG!B53,MEG!E53)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E53" s="25" t="n">
         <v>1</v>
@@ -31772,13 +31772,13 @@
       <c r="B54" s="26" t="n">
         <v>42425</v>
       </c>
-      <c r="C54" s="18" t="str">
+      <c r="C54" s="18" t="n">
         <f aca="false">IF(ids!A54=MEG!A54,MEG!C54)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D54" s="25" t="n">
         <f aca="false">IF(ids!B54=MEG!B54,MEG!E54)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>429</v>
@@ -31818,13 +31818,13 @@
       <c r="B55" s="26" t="n">
         <v>42296</v>
       </c>
-      <c r="C55" s="18" t="str">
+      <c r="C55" s="18" t="n">
         <f aca="false">IF(ids!A55=MEG!A55,MEG!C55)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D55" s="25" t="n">
         <f aca="false">IF(ids!B55=MEG!B55,MEG!E55)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E55" s="25" t="n">
         <v>1</v>
@@ -31864,13 +31864,13 @@
       <c r="B56" s="26" t="n">
         <v>42422</v>
       </c>
-      <c r="C56" s="18" t="str">
+      <c r="C56" s="18" t="n">
         <f aca="false">IF(ids!A56=MEG!A56,MEG!C56)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D56" s="25" t="n">
         <f aca="false">IF(ids!B56=MEG!B56,MEG!E56)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E56" s="23" t="n">
         <v>1</v>
@@ -31910,13 +31910,13 @@
       <c r="B57" s="26" t="n">
         <v>42312</v>
       </c>
-      <c r="C57" s="18" t="str">
+      <c r="C57" s="18" t="n">
         <f aca="false">IF(ids!A57=MEG!A57,MEG!C57)</f>
-        <v>0111</v>
+        <v>0</v>
       </c>
       <c r="D57" s="25" t="n">
         <f aca="false">IF(ids!B57=MEG!B57,MEG!E57)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E57" s="23" t="n">
         <v>1</v>
@@ -31956,13 +31956,13 @@
       <c r="B58" s="26" t="n">
         <v>42331</v>
       </c>
-      <c r="C58" s="18" t="str">
+      <c r="C58" s="18" t="n">
         <f aca="false">IF(ids!A58=MEG!A58,MEG!C58)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D58" s="25" t="n">
         <f aca="false">IF(ids!B58=MEG!B58,MEG!E58)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E58" s="25" t="n">
         <v>1</v>
@@ -32002,13 +32002,13 @@
       <c r="B59" s="26" t="n">
         <v>42328</v>
       </c>
-      <c r="C59" s="18" t="str">
+      <c r="C59" s="18" t="n">
         <f aca="false">IF(ids!A59=MEG!A59,MEG!C59)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D59" s="25" t="n">
         <f aca="false">IF(ids!B59=MEG!B59,MEG!E59)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E59" s="25" t="n">
         <v>1</v>
@@ -32048,13 +32048,13 @@
       <c r="B60" s="26" t="n">
         <v>42324</v>
       </c>
-      <c r="C60" s="18" t="str">
+      <c r="C60" s="18" t="n">
         <f aca="false">IF(ids!A60=MEG!A60,MEG!C60)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D60" s="25" t="n">
         <f aca="false">IF(ids!B60=MEG!B60,MEG!E60)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E60" s="23" t="n">
         <v>1</v>
@@ -32094,13 +32094,13 @@
       <c r="B61" s="30" t="n">
         <v>42462</v>
       </c>
-      <c r="C61" s="25" t="str">
+      <c r="C61" s="25" t="n">
         <f aca="false">IF(ids!A61=MEG!A61,MEG!C61)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D61" s="25" t="n">
         <f aca="false">IF(ids!B61=MEG!B61,MEG!E61)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="25" t="n">
         <v>1</v>
@@ -32140,13 +32140,13 @@
       <c r="B62" s="45" t="n">
         <v>42328</v>
       </c>
-      <c r="C62" s="18" t="str">
+      <c r="C62" s="18" t="n">
         <f aca="false">IF(ids!A62=MEG!A62,MEG!C62)</f>
-        <v>1533</v>
+        <v>0</v>
       </c>
       <c r="D62" s="25" t="n">
         <f aca="false">IF(ids!B62=MEG!B62,MEG!E62)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E62" s="25" t="n">
         <v>1</v>
@@ -32186,13 +32186,13 @@
       <c r="B63" s="33" t="n">
         <v>42340</v>
       </c>
-      <c r="C63" s="18" t="str">
+      <c r="C63" s="18" t="n">
         <f aca="false">IF(ids!A63=MEG!A63,MEG!C63)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D63" s="25" t="n">
         <f aca="false">IF(ids!B63=MEG!B63,MEG!E63)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E63" s="25" t="n">
         <v>1</v>
@@ -32232,13 +32232,13 @@
       <c r="B64" s="33" t="n">
         <v>42345</v>
       </c>
-      <c r="C64" s="18" t="str">
+      <c r="C64" s="18" t="n">
         <f aca="false">IF(ids!A64=MEG!A64,MEG!C64)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D64" s="25" t="n">
         <f aca="false">IF(ids!B64=MEG!B64,MEG!E64)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E64" s="23" t="n">
         <v>1</v>
@@ -32278,13 +32278,13 @@
       <c r="B65" s="26" t="n">
         <v>42480</v>
       </c>
-      <c r="C65" s="18" t="str">
+      <c r="C65" s="18" t="n">
         <f aca="false">IF(ids!A65=MEG!A65,MEG!C65)</f>
-        <v>1423</v>
+        <v>0</v>
       </c>
       <c r="D65" s="25" t="n">
         <f aca="false">IF(ids!B65=MEG!B65,MEG!E65)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E65" s="25" t="n">
         <v>1</v>
@@ -32324,13 +32324,13 @@
       <c r="B66" s="33" t="n">
         <v>42375</v>
       </c>
-      <c r="C66" s="18" t="str">
+      <c r="C66" s="18" t="n">
         <f aca="false">IF(ids!A66=MEG!A66,MEG!C66)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D66" s="25" t="n">
         <f aca="false">IF(ids!B66=MEG!B66,MEG!E66)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E66" s="25" t="n">
         <v>1</v>
@@ -32370,13 +32370,13 @@
       <c r="B67" s="33" t="n">
         <v>42377</v>
       </c>
-      <c r="C67" s="18" t="str">
+      <c r="C67" s="18" t="n">
         <f aca="false">IF(ids!A67=MEG!A67,MEG!C67)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D67" s="25" t="n">
         <f aca="false">IF(ids!B67=MEG!B67,MEG!E67)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E67" s="25" t="n">
         <v>1</v>
@@ -32411,13 +32411,13 @@
       <c r="B68" s="26" t="n">
         <v>42502</v>
       </c>
-      <c r="C68" s="18" t="str">
+      <c r="C68" s="18" t="n">
         <f aca="false">IF(ids!A68=MEG!A68,MEG!C68)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D68" s="25" t="n">
         <f aca="false">IF(ids!B68=MEG!B68,MEG!E68)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E68" s="25" t="n">
         <v>1</v>
@@ -32452,13 +32452,13 @@
       <c r="B69" s="33" t="n">
         <v>42376</v>
       </c>
-      <c r="C69" s="18" t="str">
+      <c r="C69" s="18" t="n">
         <f aca="false">IF(ids!A69=MEG!A69,MEG!C69)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D69" s="25" t="n">
         <f aca="false">IF(ids!B69=MEG!B69,MEG!E69)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E69" s="25" t="n">
         <v>1</v>
@@ -32498,13 +32498,13 @@
       <c r="B70" s="26" t="n">
         <v>42503</v>
       </c>
-      <c r="C70" s="18" t="str">
+      <c r="C70" s="18" t="n">
         <f aca="false">IF(ids!A70=MEG!A70,MEG!C70)</f>
-        <v>0141</v>
+        <v>0</v>
       </c>
       <c r="D70" s="25" t="n">
         <f aca="false">IF(ids!B70=MEG!B70,MEG!E70)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="25" t="n">
         <v>1</v>
@@ -32544,13 +32544,13 @@
       <c r="B71" s="33" t="n">
         <v>42384</v>
       </c>
-      <c r="C71" s="18" t="str">
+      <c r="C71" s="18" t="n">
         <f aca="false">IF(ids!A71=MEG!A71,MEG!C71)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D71" s="25" t="n">
         <f aca="false">IF(ids!B71=MEG!B71,MEG!E71)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E71" s="25" t="n">
         <v>1</v>
@@ -32590,13 +32590,13 @@
       <c r="B72" s="26" t="n">
         <v>42516</v>
       </c>
-      <c r="C72" s="18" t="str">
+      <c r="C72" s="18" t="n">
         <f aca="false">IF(ids!A72=MEG!A72,MEG!C72)</f>
-        <v>0141</v>
+        <v>0</v>
       </c>
       <c r="D72" s="25" t="n">
         <f aca="false">IF(ids!B72=MEG!B72,MEG!E72)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E72" s="25" t="n">
         <v>1</v>
@@ -32636,13 +32636,13 @@
       <c r="B73" s="33" t="n">
         <v>42397</v>
       </c>
-      <c r="C73" s="18" t="str">
+      <c r="C73" s="18" t="n">
         <f aca="false">IF(ids!A73=MEG!A73,MEG!C73)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D73" s="25" t="n">
         <f aca="false">IF(ids!B73=MEG!B73,MEG!E73)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E73" s="25" t="n">
         <v>1</v>
@@ -32682,13 +32682,13 @@
       <c r="B74" s="26" t="n">
         <v>42515</v>
       </c>
-      <c r="C74" s="18" t="str">
+      <c r="C74" s="18" t="n">
         <f aca="false">IF(ids!A74=MEG!A74,MEG!C74)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D74" s="25" t="n">
         <f aca="false">IF(ids!B74=MEG!B74,MEG!E74)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E74" s="25" t="n">
         <v>1</v>
@@ -32728,13 +32728,13 @@
       <c r="B75" s="33" t="n">
         <v>42390</v>
       </c>
-      <c r="C75" s="18" t="str">
+      <c r="C75" s="18" t="n">
         <f aca="false">IF(ids!A75=MEG!A75,MEG!C75)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D75" s="25" t="n">
         <f aca="false">IF(ids!B75=MEG!B75,MEG!E75)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E75" s="25" t="n">
         <v>1</v>
@@ -32774,13 +32774,13 @@
       <c r="B76" s="33" t="n">
         <v>42404</v>
       </c>
-      <c r="C76" s="18" t="str">
+      <c r="C76" s="18" t="n">
         <f aca="false">IF(ids!A76=MEG!A76,MEG!C76)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D76" s="25" t="n">
         <f aca="false">IF(ids!B76=MEG!B76,MEG!E76)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E76" s="25" t="n">
         <v>1</v>
@@ -32820,13 +32820,13 @@
       <c r="B77" s="26" t="n">
         <v>42536</v>
       </c>
-      <c r="C77" s="18" t="str">
+      <c r="C77" s="18" t="n">
         <f aca="false">IF(ids!A77=MEG!A77,MEG!C77)</f>
-        <v>1531</v>
+        <v>0</v>
       </c>
       <c r="D77" s="25" t="n">
         <f aca="false">IF(ids!B77=MEG!B77,MEG!E77)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E77" s="23" t="n">
         <v>1</v>
@@ -32866,13 +32866,13 @@
       <c r="B78" s="33" t="n">
         <v>42426</v>
       </c>
-      <c r="C78" s="18" t="str">
+      <c r="C78" s="18" t="n">
         <f aca="false">IF(ids!A78=MEG!A78,MEG!C78)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D78" s="25" t="n">
         <f aca="false">IF(ids!B78=MEG!B78,MEG!E78)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E78" s="25" t="n">
         <v>1</v>
@@ -32912,13 +32912,13 @@
       <c r="B79" s="26" t="n">
         <v>42562</v>
       </c>
-      <c r="C79" s="18" t="str">
+      <c r="C79" s="18" t="n">
         <f aca="false">IF(ids!A79=MEG!A79,MEG!C79)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D79" s="25" t="n">
         <f aca="false">IF(ids!B79=MEG!B79,MEG!E79)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E79" s="25" t="n">
         <v>1</v>
@@ -32958,13 +32958,13 @@
       <c r="B80" s="30" t="n">
         <v>42464</v>
       </c>
-      <c r="C80" s="25" t="str">
+      <c r="C80" s="25" t="n">
         <f aca="false">IF(ids!A80=MEG!A80,MEG!C80)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D80" s="25" t="n">
         <f aca="false">IF(ids!B80=MEG!B80,MEG!E80)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E80" s="25" t="n">
         <v>1</v>
@@ -33004,13 +33004,13 @@
       <c r="B81" s="26" t="n">
         <v>42583</v>
       </c>
-      <c r="C81" s="18" t="str">
+      <c r="C81" s="18" t="n">
         <f aca="false">IF(ids!A81=MEG!A81,MEG!C81)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D81" s="25" t="n">
         <f aca="false">IF(ids!B81=MEG!B81,MEG!E81)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E81" s="25" t="n">
         <v>1</v>
@@ -33130,13 +33130,13 @@
       <c r="B84" s="26" t="n">
         <v>42282</v>
       </c>
-      <c r="C84" s="18" t="str">
+      <c r="C84" s="18" t="n">
         <f aca="false">IF(ids!A84=MEG!A84,MEG!C84)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D84" s="25" t="n">
         <f aca="false">IF(ids!B84=MEG!B84,MEG!E84)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E84" s="25" t="n">
         <v>1</v>
@@ -33176,13 +33176,13 @@
       <c r="B85" s="26" t="n">
         <v>42416</v>
       </c>
-      <c r="C85" s="18" t="str">
+      <c r="C85" s="18" t="n">
         <f aca="false">IF(ids!A85=MEG!A85,MEG!C85)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D85" s="25" t="n">
         <f aca="false">IF(ids!B85=MEG!B85,MEG!E85)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E85" s="25" t="n">
         <v>1</v>
@@ -33222,13 +33222,13 @@
       <c r="B86" s="26" t="n">
         <v>42291</v>
       </c>
-      <c r="C86" s="18" t="str">
+      <c r="C86" s="18" t="n">
         <f aca="false">IF(ids!A86=MEG!A86,MEG!C86)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D86" s="25" t="n">
         <f aca="false">IF(ids!B86=MEG!B86,MEG!E86)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E86" s="25" t="n">
         <v>1</v>
@@ -33268,13 +33268,13 @@
       <c r="B87" s="26" t="n">
         <v>42327</v>
       </c>
-      <c r="C87" s="18" t="str">
+      <c r="C87" s="18" t="n">
         <f aca="false">IF(ids!A87=MEG!A87,MEG!C87)</f>
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="D87" s="25" t="n">
         <f aca="false">IF(ids!B87=MEG!B87,MEG!E87)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E87" s="25" t="n">
         <v>1</v>
@@ -33314,13 +33314,13 @@
       <c r="B88" s="26" t="n">
         <v>42443</v>
       </c>
-      <c r="C88" s="18" t="str">
+      <c r="C88" s="18" t="n">
         <f aca="false">IF(ids!A88=MEG!A88,MEG!C88)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D88" s="25" t="n">
         <f aca="false">IF(ids!B88=MEG!B88,MEG!E88)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E88" s="23" t="n">
         <v>1</v>
@@ -33360,13 +33360,13 @@
       <c r="B89" s="26" t="n">
         <v>42313</v>
       </c>
-      <c r="C89" s="18" t="str">
+      <c r="C89" s="18" t="n">
         <f aca="false">IF(ids!A89=MEG!A89,MEG!C89)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D89" s="25" t="n">
         <f aca="false">IF(ids!B89=MEG!B89,MEG!E89)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E89" s="25" t="n">
         <v>1</v>
@@ -33406,13 +33406,13 @@
       <c r="B90" s="26" t="n">
         <v>42359</v>
       </c>
-      <c r="C90" s="18" t="str">
+      <c r="C90" s="18" t="n">
         <f aca="false">IF(ids!A90=MEG!A90,MEG!C90)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D90" s="25" t="n">
         <f aca="false">IF(ids!B90=MEG!B90,MEG!E90)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E90" s="25" t="n">
         <v>1</v>
@@ -33452,13 +33452,13 @@
       <c r="B91" s="26" t="n">
         <v>42386</v>
       </c>
-      <c r="C91" s="18" t="str">
+      <c r="C91" s="18" t="n">
         <f aca="false">IF(ids!A91=MEG!A91,MEG!C91)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D91" s="25" t="n">
         <f aca="false">IF(ids!B91=MEG!B91,MEG!E91)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E91" s="25" t="n">
         <v>0</v>
@@ -33498,13 +33498,13 @@
       <c r="B92" s="26" t="n">
         <v>42384</v>
       </c>
-      <c r="C92" s="18" t="str">
+      <c r="C92" s="18" t="n">
         <f aca="false">IF(ids!A92=MEG!A92,MEG!C92)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D92" s="25" t="n">
         <f aca="false">IF(ids!B92=MEG!B92,MEG!E92)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E92" s="25" t="n">
         <v>1</v>
@@ -33544,13 +33544,13 @@
       <c r="B93" s="26" t="n">
         <v>42513</v>
       </c>
-      <c r="C93" s="18" t="str">
+      <c r="C93" s="18" t="n">
         <f aca="false">IF(ids!A93=MEG!A93,MEG!C93)</f>
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D93" s="25" t="n">
         <f aca="false">IF(ids!B93=MEG!B93,MEG!E93)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E93" s="25" t="n">
         <v>0</v>
@@ -33590,13 +33590,13 @@
       <c r="B94" s="26" t="n">
         <v>42381</v>
       </c>
-      <c r="C94" s="18" t="str">
+      <c r="C94" s="18" t="n">
         <f aca="false">IF(ids!A94=MEG!A94,MEG!C94)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D94" s="25" t="n">
         <f aca="false">IF(ids!B94=MEG!B94,MEG!E94)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E94" s="25" t="n">
         <v>1</v>
@@ -33682,13 +33682,13 @@
       <c r="B96" s="26" t="n">
         <v>42395</v>
       </c>
-      <c r="C96" s="18" t="str">
+      <c r="C96" s="18" t="n">
         <f aca="false">IF(ids!A96=MEG!A96,MEG!C96)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D96" s="25" t="n">
         <f aca="false">IF(ids!B96=MEG!B96,MEG!E96)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="25" t="n">
         <v>1</v>
@@ -33728,13 +33728,13 @@
       <c r="B97" s="26" t="n">
         <v>42522</v>
       </c>
-      <c r="C97" s="18" t="str">
+      <c r="C97" s="18" t="n">
         <f aca="false">IF(ids!A97=MEG!A97,MEG!C97)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D97" s="25" t="n">
         <f aca="false">IF(ids!B97=MEG!B97,MEG!E97)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E97" s="25" t="n">
         <v>1</v>
@@ -33774,13 +33774,13 @@
       <c r="B98" s="26" t="n">
         <v>42401</v>
       </c>
-      <c r="C98" s="18" t="str">
+      <c r="C98" s="18" t="n">
         <f aca="false">IF(ids!A98=MEG!A98,MEG!C98)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D98" s="25" t="n">
         <f aca="false">IF(ids!B98=MEG!B98,MEG!E98)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E98" s="25" t="n">
         <v>1</v>
@@ -33820,13 +33820,13 @@
       <c r="B99" s="26" t="n">
         <v>42535</v>
       </c>
-      <c r="C99" s="18" t="str">
+      <c r="C99" s="18" t="n">
         <f aca="false">IF(ids!A99=MEG!A99,MEG!C99)</f>
-        <v>0141</v>
+        <v>0</v>
       </c>
       <c r="D99" s="25" t="n">
         <f aca="false">IF(ids!B99=MEG!B99,MEG!E99)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E99" s="25" t="n">
         <v>1</v>
@@ -33866,13 +33866,13 @@
       <c r="B100" s="45" t="n">
         <v>42411</v>
       </c>
-      <c r="C100" s="18" t="str">
+      <c r="C100" s="18" t="n">
         <f aca="false">IF(ids!A100=MEG!A100,MEG!C100)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D100" s="25" t="n">
         <f aca="false">IF(ids!B100=MEG!B100,MEG!E100)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E100" s="25" t="n">
         <v>1</v>
@@ -33912,13 +33912,13 @@
       <c r="B101" s="26" t="n">
         <v>42559</v>
       </c>
-      <c r="C101" s="18" t="str">
+      <c r="C101" s="18" t="n">
         <f aca="false">IF(ids!A101=MEG!A101,MEG!C101)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D101" s="25" t="n">
         <f aca="false">IF(ids!B101=MEG!B101,MEG!E101)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E101" s="25" t="n">
         <v>1</v>
@@ -33957,13 +33957,13 @@
       <c r="B102" s="26" t="n">
         <v>42417</v>
       </c>
-      <c r="C102" s="18" t="str">
+      <c r="C102" s="18" t="n">
         <f aca="false">IF(ids!A102=MEG!A102,MEG!C102)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D102" s="25" t="n">
         <f aca="false">IF(ids!B102=MEG!B102,MEG!E102)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E102" s="25" t="n">
         <v>1</v>
@@ -34003,13 +34003,13 @@
       <c r="B103" s="26" t="n">
         <v>42552</v>
       </c>
-      <c r="C103" s="18" t="str">
+      <c r="C103" s="18" t="n">
         <f aca="false">IF(ids!A103=MEG!A103,MEG!C103)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D103" s="25" t="n">
         <f aca="false">IF(ids!B103=MEG!B103,MEG!E103)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E103" s="25" t="n">
         <v>1</v>
@@ -34049,13 +34049,13 @@
       <c r="B104" s="30" t="n">
         <v>42459</v>
       </c>
-      <c r="C104" s="18" t="str">
+      <c r="C104" s="18" t="n">
         <f aca="false">IF(ids!A104=MEG!A104,MEG!C104)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D104" s="25" t="n">
         <f aca="false">IF(ids!B104=MEG!B104,MEG!E104)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E104" s="25" t="n">
         <v>1</v>
@@ -34095,13 +34095,13 @@
       <c r="B105" s="26" t="n">
         <v>42465</v>
       </c>
-      <c r="C105" s="25" t="str">
+      <c r="C105" s="25" t="n">
         <f aca="false">IF(ids!A105=MEG!A105,MEG!C105)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D105" s="25" t="n">
         <f aca="false">IF(ids!B105=MEG!B105,MEG!E105)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E105" s="25" t="n">
         <v>1</v>
@@ -34141,13 +34141,13 @@
       <c r="B106" s="26" t="n">
         <v>42587</v>
       </c>
-      <c r="C106" s="18" t="str">
+      <c r="C106" s="18" t="n">
         <f aca="false">IF(ids!A106=MEG!A106,MEG!C106)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D106" s="25" t="n">
         <f aca="false">IF(ids!B106=MEG!B106,MEG!E106)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E106" s="25" t="n">
         <v>1</v>
@@ -34187,13 +34187,13 @@
       <c r="B107" s="26" t="n">
         <v>42466</v>
       </c>
-      <c r="C107" s="25" t="str">
+      <c r="C107" s="25" t="n">
         <f aca="false">IF(ids!A107=MEG!A107,MEG!C107)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D107" s="25" t="n">
         <f aca="false">IF(ids!B107=MEG!B107,MEG!E107)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E107" s="25" t="n">
         <v>1</v>
@@ -34233,13 +34233,13 @@
       <c r="B108" s="26" t="n">
         <v>42594</v>
       </c>
-      <c r="C108" s="18" t="str">
+      <c r="C108" s="18" t="n">
         <f aca="false">IF(ids!A108=MEG!A108,MEG!C108)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D108" s="25" t="n">
         <f aca="false">IF(ids!B108=MEG!B108,MEG!E108)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E108" s="25" t="n">
         <v>1</v>
@@ -34279,13 +34279,13 @@
       <c r="B109" s="26" t="n">
         <v>42472</v>
       </c>
-      <c r="C109" s="25" t="str">
+      <c r="C109" s="25" t="n">
         <f aca="false">IF(ids!A109=MEG!A109,MEG!C109)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D109" s="25" t="n">
         <f aca="false">IF(ids!B109=MEG!B109,MEG!E109)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E109" s="25" t="n">
         <v>1</v>
@@ -34325,13 +34325,13 @@
       <c r="B110" s="26" t="n">
         <v>42606</v>
       </c>
-      <c r="C110" s="18" t="str">
+      <c r="C110" s="18" t="n">
         <f aca="false">IF(ids!A110=MEG!A110,MEG!C110)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D110" s="25" t="n">
         <f aca="false">IF(ids!B110=MEG!B110,MEG!E110)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E110" s="25" t="n">
         <v>1</v>
@@ -34371,13 +34371,13 @@
       <c r="B111" s="26" t="n">
         <v>42235</v>
       </c>
-      <c r="C111" s="18" t="str">
+      <c r="C111" s="18" t="n">
         <f aca="false">IF(ids!A111=MEG!A111,MEG!C111)</f>
-        <v>0143</v>
+        <v>0</v>
       </c>
       <c r="D111" s="25" t="n">
         <f aca="false">IF(ids!B111=MEG!B111,MEG!E111)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E111" s="23" t="n">
         <v>1</v>
@@ -34417,13 +34417,13 @@
       <c r="B112" s="26" t="n">
         <v>42234</v>
       </c>
-      <c r="C112" s="18" t="str">
+      <c r="C112" s="18" t="n">
         <f aca="false">IF(ids!A112=MEG!A112,MEG!C112)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D112" s="25" t="n">
         <f aca="false">IF(ids!B112=MEG!B112,MEG!E112)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E112" s="23" t="n">
         <v>1</v>
@@ -34463,13 +34463,13 @@
       <c r="B113" s="26" t="n">
         <v>42373</v>
       </c>
-      <c r="C113" s="18" t="str">
+      <c r="C113" s="18" t="n">
         <f aca="false">IF(ids!A113=MEG!A113,MEG!C113)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D113" s="25" t="n">
         <f aca="false">IF(ids!B113=MEG!B113,MEG!E113)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E113" s="25" t="n">
         <v>1</v>
@@ -34509,13 +34509,13 @@
       <c r="B114" s="26" t="n">
         <v>42237</v>
       </c>
-      <c r="C114" s="18" t="str">
+      <c r="C114" s="18" t="n">
         <f aca="false">IF(ids!A114=MEG!A114,MEG!C114)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D114" s="25" t="n">
         <f aca="false">IF(ids!B114=MEG!B114,MEG!E114)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E114" s="25" t="n">
         <v>1</v>
@@ -34555,13 +34555,13 @@
       <c r="B115" s="26" t="n">
         <v>42367</v>
       </c>
-      <c r="C115" s="18" t="str">
+      <c r="C115" s="18" t="n">
         <f aca="false">IF(ids!A115=MEG!A115,MEG!C115)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D115" s="25" t="n">
         <f aca="false">IF(ids!B115=MEG!B115,MEG!E115)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E115" s="25" t="n">
         <v>1</v>
@@ -34601,13 +34601,13 @@
       <c r="B116" s="26" t="n">
         <v>42250</v>
       </c>
-      <c r="C116" s="18" t="str">
+      <c r="C116" s="18" t="n">
         <f aca="false">IF(ids!A116=MEG!A116,MEG!C116)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D116" s="25" t="n">
         <f aca="false">IF(ids!B116=MEG!B116,MEG!E116)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E116" s="25" t="n">
         <v>1</v>
@@ -34647,13 +34647,13 @@
       <c r="B117" s="26" t="n">
         <v>42373</v>
       </c>
-      <c r="C117" s="18" t="str">
+      <c r="C117" s="18" t="n">
         <f aca="false">IF(ids!A117=MEG!A117,MEG!C117)</f>
-        <v>0113</v>
+        <v>0</v>
       </c>
       <c r="D117" s="25" t="n">
         <f aca="false">IF(ids!B117=MEG!B117,MEG!E117)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E117" s="25" t="n">
         <v>1</v>
@@ -34704,11 +34704,11 @@
   </sheetPr>
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="1" sqref="C13 A87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="1" sqref="D14 B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.37109375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="97" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="98" width="29.83"/>
@@ -34761,10 +34761,10 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="20" t="n">
-        <v>42262</v>
+        <v>199</v>
+      </c>
+      <c r="B2" s="26" t="n">
+        <v>42234</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>430</v>
@@ -34798,16 +34798,16 @@
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>63</v>
+        <v>418</v>
       </c>
       <c r="B3" s="26" t="n">
-        <v>42293</v>
+        <v>42235</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="D3" s="100" t="n">
+        <v>2512</v>
       </c>
       <c r="E3" s="25" t="n">
         <v>1200</v>
@@ -34835,10 +34835,10 @@
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="B4" s="26" t="n">
-        <v>42276</v>
+        <v>42237</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>430</v>
@@ -34872,16 +34872,16 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="99" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B5" s="26" t="n">
-        <v>42286</v>
+        <v>42250</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E5" s="25" t="n">
         <v>1200</v>
@@ -34909,10 +34909,10 @@
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="26" t="n">
-        <v>42279</v>
+        <v>59</v>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>42262</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>430</v>
@@ -34946,16 +34946,16 @@
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="99" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B7" s="26" t="n">
-        <v>42286</v>
+        <v>42262</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D7" s="100" t="n">
-        <v>1141</v>
+      <c r="D7" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E7" s="25" t="n">
         <v>1200</v>
@@ -34983,19 +34983,19 @@
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="99" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B8" s="26" t="n">
-        <v>42314</v>
+        <v>42263</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" s="100" t="n">
-        <v>2532</v>
+        <v>430</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="94"/>
       <c r="G8" s="94"/>
@@ -35020,19 +35020,19 @@
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="99" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B9" s="26" t="n">
-        <v>42310</v>
+        <v>42268</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="D9" s="100" t="n">
+        <v>2623</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="93"/>
       <c r="G9" s="93"/>
@@ -35057,19 +35057,19 @@
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="99" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B10" s="26" t="n">
-        <v>42313</v>
+        <v>42272</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
@@ -35094,19 +35094,19 @@
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="99" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="B11" s="26" t="n">
-        <v>42300</v>
+        <v>42275</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D11" s="100" t="s">
-        <v>432</v>
+      <c r="D11" s="100" t="n">
+        <v>1643</v>
       </c>
       <c r="E11" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
@@ -35131,19 +35131,19 @@
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="99" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B12" s="26" t="n">
-        <v>42304</v>
+        <v>42276</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D12" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E12" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
@@ -35168,10 +35168,10 @@
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="99" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B13" s="26" t="n">
-        <v>42320</v>
+        <v>42279</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>430</v>
@@ -35180,7 +35180,7 @@
         <v>432</v>
       </c>
       <c r="E13" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
@@ -35205,19 +35205,19 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="99" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B14" s="26" t="n">
-        <v>42320</v>
+        <v>42282</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D14" s="100" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E14" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
@@ -35242,19 +35242,19 @@
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="99" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="B15" s="26" t="n">
-        <v>42321</v>
+        <v>42282</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D15" s="100" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E15" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
@@ -35278,20 +35278,20 @@
       <c r="Y15" s="94"/>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101" t="s">
-        <v>203</v>
+      <c r="A16" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="B16" s="26" t="n">
-        <v>42462</v>
+        <v>42283</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>438</v>
+        <v>430</v>
+      </c>
+      <c r="D16" s="100" t="n">
+        <v>2512</v>
       </c>
       <c r="E16" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
@@ -35316,19 +35316,19 @@
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="99" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B17" s="26" t="n">
-        <v>42326</v>
+        <v>42286</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D17" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E17" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="94"/>
       <c r="G17" s="94"/>
@@ -35352,20 +35352,20 @@
       <c r="Y17" s="94"/>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="101" t="s">
-        <v>205</v>
+      <c r="A18" s="99" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="26" t="n">
-        <v>42452</v>
+        <v>42286</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D18" s="100" t="n">
-        <v>1413</v>
+        <v>1141</v>
       </c>
       <c r="E18" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F18" s="94"/>
       <c r="G18" s="94"/>
@@ -35390,10 +35390,10 @@
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="99" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="B19" s="26" t="n">
-        <v>42309</v>
+        <v>42291</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>433</v>
@@ -35402,7 +35402,7 @@
         <v>432</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
@@ -35427,19 +35427,19 @@
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="99" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B20" s="26" t="n">
-        <v>42325</v>
+        <v>42293</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D20" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="94"/>
       <c r="G20" s="94"/>
@@ -35463,17 +35463,17 @@
       <c r="Y20" s="94"/>
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="101" t="s">
-        <v>207</v>
+      <c r="A21" s="99" t="s">
+        <v>139</v>
       </c>
       <c r="B21" s="26" t="n">
-        <v>42466</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>432</v>
+        <v>42296</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="100" t="n">
+        <v>1112</v>
       </c>
       <c r="E21" s="25" t="n">
         <v>1800</v>
@@ -35501,16 +35501,16 @@
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="99" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>42332</v>
+        <v>42300</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D22" s="100" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E22" s="25" t="n">
         <v>1800</v>
@@ -35537,17 +35537,17 @@
       <c r="Y22" s="94"/>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="101" t="s">
-        <v>209</v>
+      <c r="A23" s="99" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="26" t="n">
-        <v>42451</v>
+        <v>42304</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D23" s="100" t="n">
-        <v>1821</v>
+        <v>437</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E23" s="25" t="n">
         <v>1800</v>
@@ -35575,13 +35575,13 @@
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24" s="26" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D24" s="100" t="s">
         <v>432</v>
@@ -35611,17 +35611,17 @@
       <c r="Y24" s="94"/>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="101" t="s">
-        <v>211</v>
+      <c r="A25" s="99" t="s">
+        <v>76</v>
       </c>
       <c r="B25" s="26" t="n">
-        <v>42464</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="100" t="n">
-        <v>2611</v>
+        <v>42310</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E25" s="25" t="n">
         <v>1800</v>
@@ -35649,13 +35649,13 @@
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B26" s="26" t="n">
-        <v>42342</v>
+        <v>42312</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D26" s="100" t="s">
         <v>432</v>
@@ -35686,13 +35686,13 @@
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="99" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B27" s="26" t="n">
-        <v>42349</v>
+        <v>42313</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D27" s="100" t="s">
         <v>432</v>
@@ -35722,14 +35722,14 @@
       <c r="Y27" s="94"/>
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="101" t="s">
-        <v>213</v>
+      <c r="A28" s="99" t="s">
+        <v>171</v>
       </c>
       <c r="B28" s="26" t="n">
-        <v>42464</v>
-      </c>
-      <c r="C28" s="25" t="n">
-        <v>1711</v>
+        <v>42313</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>433</v>
       </c>
       <c r="D28" s="100" t="s">
         <v>432</v>
@@ -35760,16 +35760,16 @@
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="99" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B29" s="26" t="n">
-        <v>42374</v>
+        <v>42314</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="100" t="s">
-        <v>432</v>
+        <v>438</v>
+      </c>
+      <c r="D29" s="100" t="n">
+        <v>2532</v>
       </c>
       <c r="E29" s="25" t="n">
         <v>1800</v>
@@ -35797,13 +35797,13 @@
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="99" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B30" s="26" t="n">
-        <v>42383</v>
+        <v>42320</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D30" s="100" t="s">
         <v>432</v>
@@ -35834,16 +35834,16 @@
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="99" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B31" s="26" t="n">
-        <v>42394</v>
+        <v>42320</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E31" s="25" t="n">
         <v>1800</v>
@@ -35871,13 +35871,13 @@
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="99" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="B32" s="26" t="n">
-        <v>42528</v>
+        <v>42321</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D32" s="100" t="s">
         <v>432</v>
@@ -35908,16 +35908,16 @@
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="99" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B33" s="26" t="n">
-        <v>42395</v>
+        <v>42324</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E33" s="25" t="n">
         <v>1800</v>
@@ -35945,13 +35945,13 @@
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="99" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="B34" s="26" t="n">
-        <v>42534</v>
+        <v>42325</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D34" s="100" t="s">
         <v>432</v>
@@ -35982,16 +35982,16 @@
     </row>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="99" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B35" s="26" t="n">
-        <v>42398</v>
+        <v>42326</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E35" s="25" t="n">
         <v>1800</v>
@@ -36019,16 +36019,16 @@
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="99" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B36" s="26" t="n">
-        <v>42535</v>
+        <v>42327</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D36" s="100" t="s">
-        <v>432</v>
+        <v>441</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>442</v>
       </c>
       <c r="E36" s="25" t="n">
         <v>1800</v>
@@ -36055,17 +36055,17 @@
       <c r="Y36" s="94"/>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="101" t="s">
-        <v>112</v>
+      <c r="A37" s="99" t="s">
+        <v>145</v>
       </c>
       <c r="B37" s="26" t="n">
-        <v>42410</v>
+        <v>42328</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D37" s="100" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E37" s="25" t="n">
         <v>1800</v>
@@ -36092,14 +36092,14 @@
       <c r="Y37" s="94"/>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="101" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="26" t="n">
-        <v>42558</v>
+      <c r="A38" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="45" t="n">
+        <v>42328</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D38" s="100" t="s">
         <v>432</v>
@@ -36130,13 +36130,13 @@
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="99" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B39" s="26" t="n">
-        <v>42426</v>
+        <v>42331</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D39" s="100" t="s">
         <v>432</v>
@@ -36167,16 +36167,16 @@
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="99" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="B40" s="26" t="n">
-        <v>42550</v>
+        <v>42332</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E40" s="25" t="n">
         <v>1800</v>
@@ -36204,15 +36204,15 @@
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="99" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B41" s="26" t="n">
-        <v>42467</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D41" s="94" t="s">
+        <v>42339</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E41" s="25" t="n">
@@ -36240,14 +36240,14 @@
       <c r="Y41" s="94"/>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="26" t="n">
-        <v>42467</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>430</v>
+      <c r="A42" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="33" t="n">
+        <v>42340</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>433</v>
       </c>
       <c r="D42" s="100" t="s">
         <v>432</v>
@@ -36278,13 +36278,13 @@
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="99" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="B43" s="26" t="n">
-        <v>42598</v>
+        <v>42342</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D43" s="100" t="s">
         <v>432</v>
@@ -36315,16 +36315,16 @@
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="26" t="n">
-        <v>42475</v>
+        <v>152</v>
+      </c>
+      <c r="B44" s="33" t="n">
+        <v>42345</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" s="100" t="n">
-        <v>1631</v>
+        <v>433</v>
+      </c>
+      <c r="D44" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E44" s="25" t="n">
         <v>1800</v>
@@ -36352,13 +36352,13 @@
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="99" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="B45" s="26" t="n">
-        <v>42604</v>
+        <v>42349</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D45" s="100" t="s">
         <v>432</v>
@@ -36389,10 +36389,10 @@
     </row>
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="99" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="B46" s="26" t="n">
-        <v>42263</v>
+        <v>42359</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>430</v>
@@ -36401,7 +36401,7 @@
         <v>432</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
@@ -36426,19 +36426,19 @@
     </row>
     <row r="47" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="99" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="B47" s="26" t="n">
-        <v>42262</v>
+        <v>42367</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D47" s="100" t="s">
-        <v>432</v>
+      <c r="D47" s="100" t="n">
+        <v>1823</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
@@ -36463,19 +36463,19 @@
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="99" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="B48" s="26" t="n">
-        <v>42268</v>
+        <v>42373</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D48" s="100" t="n">
-        <v>2623</v>
+      <c r="D48" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E48" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
@@ -36500,19 +36500,19 @@
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="99" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="B49" s="26" t="n">
-        <v>42272</v>
+        <v>42373</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D49" s="100" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E49" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
@@ -36537,19 +36537,19 @@
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="99" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B50" s="26" t="n">
-        <v>42275</v>
+        <v>42374</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D50" s="100" t="n">
-        <v>1643</v>
+      <c r="D50" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E50" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
@@ -36573,11 +36573,11 @@
       <c r="Y50" s="94"/>
     </row>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="26" t="n">
-        <v>42282</v>
+      <c r="A51" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="33" t="n">
+        <v>42375</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>430</v>
@@ -36586,7 +36586,7 @@
         <v>432</v>
       </c>
       <c r="E51" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
@@ -36610,17 +36610,17 @@
       <c r="Y51" s="94"/>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="B52" s="26" t="n">
-        <v>42426</v>
+      <c r="A52" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="33" t="n">
+        <v>42376</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D52" s="100" t="n">
-        <v>1321</v>
+      <c r="D52" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E52" s="25" t="n">
         <v>1800</v>
@@ -36647,20 +36647,20 @@
       <c r="Y52" s="94"/>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="26" t="n">
-        <v>42283</v>
+      <c r="A53" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="33" t="n">
+        <v>42377</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D53" s="100" t="n">
-        <v>2512</v>
+        <v>1112</v>
       </c>
       <c r="E53" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
@@ -36684,17 +36684,17 @@
       <c r="Y53" s="94"/>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="102" t="s">
-        <v>229</v>
+      <c r="A54" s="99" t="s">
+        <v>192</v>
       </c>
       <c r="B54" s="26" t="n">
-        <v>42425</v>
+        <v>42381</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D54" s="100" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="D54" s="100" t="n">
+        <v>1023</v>
       </c>
       <c r="E54" s="25" t="n">
         <v>1800</v>
@@ -36722,16 +36722,16 @@
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="99" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B55" s="26" t="n">
-        <v>42296</v>
+        <v>42383</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D55" s="100" t="n">
-        <v>1112</v>
+        <v>433</v>
+      </c>
+      <c r="D55" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E55" s="25" t="n">
         <v>1800</v>
@@ -36758,17 +36758,17 @@
       <c r="Y55" s="94"/>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="26" t="n">
-        <v>42422</v>
+      <c r="A56" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="33" t="n">
+        <v>42384</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D56" s="100" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="D56" s="100" t="n">
+        <v>1223</v>
       </c>
       <c r="E56" s="25" t="n">
         <v>1800</v>
@@ -36796,16 +36796,16 @@
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="99" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B57" s="26" t="n">
-        <v>42312</v>
+        <v>42384</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D57" s="100" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="E57" s="25" t="n">
         <v>1800</v>
@@ -36833,10 +36833,10 @@
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="99" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="B58" s="26" t="n">
-        <v>42331</v>
+        <v>42386</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>430</v>
@@ -36869,17 +36869,17 @@
       <c r="Y58" s="94"/>
     </row>
     <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="26" t="n">
-        <v>42328</v>
+      <c r="A59" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="33" t="n">
+        <v>42390</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D59" s="100" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E59" s="25" t="n">
         <v>1800</v>
@@ -36907,13 +36907,13 @@
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="99" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B60" s="26" t="n">
-        <v>42324</v>
+        <v>42394</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D60" s="100" t="s">
         <v>447</v>
@@ -36943,17 +36943,17 @@
       <c r="Y60" s="94"/>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="101" t="s">
-        <v>231</v>
+      <c r="A61" s="99" t="s">
+        <v>109</v>
       </c>
       <c r="B61" s="26" t="n">
-        <v>42462</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>430</v>
+        <v>42395</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>433</v>
       </c>
       <c r="D61" s="100" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E61" s="25" t="n">
         <v>1800</v>
@@ -36981,16 +36981,16 @@
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="45" t="n">
-        <v>42328</v>
+        <v>193</v>
+      </c>
+      <c r="B62" s="26" t="n">
+        <v>42395</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D62" s="100" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="D62" s="100" t="n">
+        <v>1413</v>
       </c>
       <c r="E62" s="25" t="n">
         <v>1800</v>
@@ -37017,17 +37017,17 @@
       <c r="Y62" s="94"/>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="102" t="s">
-        <v>150</v>
+      <c r="A63" s="101" t="s">
+        <v>161</v>
       </c>
       <c r="B63" s="33" t="n">
-        <v>42340</v>
+        <v>42397</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D63" s="100" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="E63" s="25" t="n">
         <v>1800</v>
@@ -37054,17 +37054,17 @@
       <c r="Y63" s="94"/>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="33" t="n">
-        <v>42345</v>
+      <c r="A64" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="26" t="n">
+        <v>42398</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D64" s="100" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="E64" s="25" t="n">
         <v>1800</v>
@@ -37091,17 +37091,17 @@
       <c r="Y64" s="94"/>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="101" t="s">
-        <v>233</v>
+      <c r="A65" s="99" t="s">
+        <v>194</v>
       </c>
       <c r="B65" s="26" t="n">
-        <v>42480</v>
+        <v>42401</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D65" s="100" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="E65" s="25" t="n">
         <v>1800</v>
@@ -37128,11 +37128,11 @@
       <c r="Y65" s="94"/>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="102" t="s">
-        <v>153</v>
+      <c r="A66" s="101" t="s">
+        <v>163</v>
       </c>
       <c r="B66" s="33" t="n">
-        <v>42375</v>
+        <v>42404</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>430</v>
@@ -37166,16 +37166,16 @@
     </row>
     <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="33" t="n">
-        <v>42377</v>
+        <v>112</v>
+      </c>
+      <c r="B67" s="26" t="n">
+        <v>42410</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D67" s="100" t="n">
-        <v>1112</v>
+        <v>433</v>
+      </c>
+      <c r="D67" s="100" t="s">
+        <v>452</v>
       </c>
       <c r="E67" s="25" t="n">
         <v>1800</v>
@@ -37202,17 +37202,17 @@
       <c r="Y67" s="94"/>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="B68" s="26" t="n">
-        <v>42502</v>
+      <c r="A68" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="45" t="n">
+        <v>42411</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D68" s="100" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="D68" s="100" t="n">
+        <v>1413</v>
       </c>
       <c r="E68" s="25" t="n">
         <v>1800</v>
@@ -37239,11 +37239,11 @@
       <c r="Y68" s="94"/>
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="33" t="n">
-        <v>42376</v>
+      <c r="A69" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="26" t="n">
+        <v>42416</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>430</v>
@@ -37277,13 +37277,13 @@
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="99" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B70" s="26" t="n">
-        <v>42503</v>
+        <v>42417</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D70" s="100" t="s">
         <v>432</v>
@@ -37313,17 +37313,17 @@
       <c r="Y70" s="94"/>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="33" t="n">
-        <v>42384</v>
+      <c r="A71" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="26" t="n">
+        <v>42422</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D71" s="100" t="n">
-        <v>1223</v>
+        <v>433</v>
+      </c>
+      <c r="D71" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E71" s="25" t="n">
         <v>1800</v>
@@ -37350,11 +37350,11 @@
       <c r="Y71" s="94"/>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="99" t="s">
-        <v>239</v>
+      <c r="A72" s="101" t="s">
+        <v>229</v>
       </c>
       <c r="B72" s="26" t="n">
-        <v>42516</v>
+        <v>42425</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>433</v>
@@ -37387,17 +37387,17 @@
       <c r="Y72" s="94"/>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="33" t="n">
-        <v>42397</v>
+      <c r="A73" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="26" t="n">
+        <v>42426</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D73" s="100" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="E73" s="25" t="n">
         <v>1800</v>
@@ -37424,17 +37424,17 @@
       <c r="Y73" s="94"/>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="99" t="s">
-        <v>240</v>
+      <c r="A74" s="101" t="s">
+        <v>228</v>
       </c>
       <c r="B74" s="26" t="n">
-        <v>42515</v>
+        <v>42426</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D74" s="100" t="n">
-        <v>2141</v>
+        <v>1321</v>
       </c>
       <c r="E74" s="25" t="n">
         <v>1800</v>
@@ -37461,17 +37461,17 @@
       <c r="Y74" s="94"/>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="102" t="s">
-        <v>162</v>
+      <c r="A75" s="101" t="s">
+        <v>165</v>
       </c>
       <c r="B75" s="33" t="n">
-        <v>42390</v>
+        <v>42426</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D75" s="100" t="s">
-        <v>451</v>
+      <c r="D75" s="100" t="n">
+        <v>2541</v>
       </c>
       <c r="E75" s="25" t="n">
         <v>1800</v>
@@ -37498,11 +37498,11 @@
       <c r="Y75" s="94"/>
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="33" t="n">
-        <v>42404</v>
+      <c r="A76" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="26" t="n">
+        <v>42443</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>430</v>
@@ -37535,17 +37535,17 @@
       <c r="Y76" s="94"/>
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="99" t="s">
-        <v>242</v>
+      <c r="A77" s="102" t="s">
+        <v>209</v>
       </c>
       <c r="B77" s="26" t="n">
-        <v>42536</v>
+        <v>42451</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="D77" s="100" t="n">
-        <v>2612</v>
+        <v>1821</v>
       </c>
       <c r="E77" s="25" t="n">
         <v>1800</v>
@@ -37573,16 +37573,16 @@
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="33" t="n">
-        <v>42426</v>
+        <v>205</v>
+      </c>
+      <c r="B78" s="26" t="n">
+        <v>42452</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D78" s="100" t="n">
-        <v>2541</v>
+        <v>1413</v>
       </c>
       <c r="E78" s="25" t="n">
         <v>1800</v>
@@ -37609,16 +37609,16 @@
       <c r="Y78" s="94"/>
     </row>
     <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="99" t="s">
-        <v>243</v>
+      <c r="A79" s="102" t="s">
+        <v>120</v>
       </c>
       <c r="B79" s="26" t="n">
-        <v>42562</v>
+        <v>42459</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D79" s="100" t="s">
+        <v>430</v>
+      </c>
+      <c r="D79" s="94" t="s">
         <v>453</v>
       </c>
       <c r="E79" s="25" t="n">
@@ -37646,17 +37646,17 @@
       <c r="Y79" s="94"/>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="101" t="s">
-        <v>166</v>
+      <c r="A80" s="102" t="s">
+        <v>203</v>
       </c>
       <c r="B80" s="26" t="n">
-        <v>42464</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D80" s="100" t="s">
+        <v>42462</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>454</v>
+      </c>
+      <c r="D80" s="94" t="s">
+        <v>455</v>
       </c>
       <c r="E80" s="25" t="n">
         <v>1800</v>
@@ -37683,17 +37683,17 @@
       <c r="Y80" s="95"/>
     </row>
     <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="99" t="s">
-        <v>244</v>
+      <c r="A81" s="102" t="s">
+        <v>231</v>
       </c>
       <c r="B81" s="26" t="n">
-        <v>42583</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D81" s="100" t="n">
-        <v>2512</v>
+        <v>42462</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D81" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E81" s="25" t="n">
         <v>1800</v>
@@ -37720,17 +37720,17 @@
       <c r="Y81" s="94"/>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="99" t="s">
-        <v>168</v>
+      <c r="A82" s="102" t="s">
+        <v>211</v>
       </c>
       <c r="B82" s="26" t="n">
-        <v>42751</v>
-      </c>
-      <c r="C82" s="18" t="s">
+        <v>42464</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="D82" s="100" t="s">
-        <v>432</v>
+      <c r="D82" s="100" t="n">
+        <v>2611</v>
       </c>
       <c r="E82" s="25" t="n">
         <v>1800</v>
@@ -37757,14 +37757,14 @@
       <c r="Y82" s="94"/>
     </row>
     <row r="83" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="99" t="s">
-        <v>246</v>
+      <c r="A83" s="102" t="s">
+        <v>213</v>
       </c>
       <c r="B83" s="26" t="n">
-        <v>42863</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>430</v>
+        <v>42464</v>
+      </c>
+      <c r="C83" s="25" t="n">
+        <v>1711</v>
       </c>
       <c r="D83" s="100" t="s">
         <v>432</v>
@@ -37794,20 +37794,20 @@
       <c r="Y83" s="94"/>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="99" t="s">
-        <v>170</v>
+      <c r="A84" s="102" t="s">
+        <v>166</v>
       </c>
       <c r="B84" s="26" t="n">
-        <v>42282</v>
-      </c>
-      <c r="C84" s="18" t="s">
+        <v>42464</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>430</v>
       </c>
       <c r="D84" s="100" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E84" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F84" s="93"/>
       <c r="G84" s="93"/>
@@ -37831,17 +37831,17 @@
       <c r="Y84" s="94"/>
     </row>
     <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="99" t="s">
-        <v>247</v>
+      <c r="A85" s="102" t="s">
+        <v>196</v>
       </c>
       <c r="B85" s="26" t="n">
-        <v>42416</v>
-      </c>
-      <c r="C85" s="18" t="s">
+        <v>42465</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="D85" s="100" t="s">
-        <v>432</v>
+      <c r="D85" s="94" t="s">
+        <v>457</v>
       </c>
       <c r="E85" s="25" t="n">
         <v>1800</v>
@@ -37868,20 +37868,20 @@
       <c r="Y85" s="95"/>
     </row>
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="99" t="s">
-        <v>187</v>
+      <c r="A86" s="102" t="s">
+        <v>207</v>
       </c>
       <c r="B86" s="26" t="n">
-        <v>42291</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D86" s="100" t="s">
+        <v>42466</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D86" s="94" t="s">
         <v>432</v>
       </c>
       <c r="E86" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
@@ -37906,16 +37906,16 @@
     </row>
     <row r="87" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="99" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B87" s="26" t="n">
-        <v>42327</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>439</v>
+        <v>42466</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="D87" s="94" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E87" s="25" t="n">
         <v>1800</v>
@@ -37943,15 +37943,15 @@
     </row>
     <row r="88" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="99" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="B88" s="26" t="n">
-        <v>42443</v>
-      </c>
-      <c r="C88" s="18" t="s">
+        <v>42467</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="D88" s="100" t="s">
+      <c r="D88" s="94" t="s">
         <v>432</v>
       </c>
       <c r="E88" s="25" t="n">
@@ -37980,13 +37980,13 @@
     </row>
     <row r="89" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="99" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B89" s="26" t="n">
-        <v>42313</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>434</v>
+        <v>42467</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="D89" s="100" t="s">
         <v>432</v>
@@ -38017,12 +38017,12 @@
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="99" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B90" s="26" t="n">
-        <v>42359</v>
-      </c>
-      <c r="C90" s="18" t="s">
+        <v>42472</v>
+      </c>
+      <c r="C90" s="25" t="s">
         <v>430</v>
       </c>
       <c r="D90" s="100" t="s">
@@ -38053,17 +38053,17 @@
       <c r="Y90" s="94"/>
     </row>
     <row r="91" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="99" t="s">
-        <v>190</v>
+      <c r="A91" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="B91" s="26" t="n">
-        <v>42386</v>
+        <v>42475</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D91" s="100" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="D91" s="100" t="n">
+        <v>1631</v>
       </c>
       <c r="E91" s="25" t="n">
         <v>1800</v>
@@ -38090,17 +38090,17 @@
       <c r="Y91" s="94"/>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="99" t="s">
-        <v>191</v>
+      <c r="A92" s="102" t="s">
+        <v>233</v>
       </c>
       <c r="B92" s="26" t="n">
-        <v>42384</v>
+        <v>42480</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="D92" s="100" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E92" s="25" t="n">
         <v>1800</v>
@@ -38127,17 +38127,17 @@
       <c r="Y92" s="94"/>
     </row>
     <row r="93" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="101" t="s">
-        <v>249</v>
+      <c r="A93" s="102" t="s">
+        <v>235</v>
       </c>
       <c r="B93" s="26" t="n">
-        <v>42513</v>
+        <v>42502</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D93" s="100" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="E93" s="25" t="n">
         <v>1800</v>
@@ -38165,16 +38165,16 @@
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="99" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="B94" s="26" t="n">
-        <v>42381</v>
+        <v>42503</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D94" s="100" t="n">
-        <v>1023</v>
+        <v>438</v>
+      </c>
+      <c r="D94" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E94" s="25" t="n">
         <v>1800</v>
@@ -38201,7 +38201,7 @@
       <c r="Y94" s="94"/>
     </row>
     <row r="95" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="101" t="s">
+      <c r="A95" s="102" t="s">
         <v>250</v>
       </c>
       <c r="B95" s="26" t="n">
@@ -38238,17 +38238,17 @@
       <c r="Y95" s="94"/>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="99" t="s">
-        <v>193</v>
+      <c r="A96" s="102" t="s">
+        <v>249</v>
       </c>
       <c r="B96" s="26" t="n">
-        <v>42395</v>
+        <v>42513</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D96" s="100" t="n">
-        <v>1413</v>
+        <v>459</v>
+      </c>
+      <c r="D96" s="100" t="s">
+        <v>460</v>
       </c>
       <c r="E96" s="25" t="n">
         <v>1800</v>
@@ -38275,17 +38275,17 @@
       <c r="Y96" s="94"/>
     </row>
     <row r="97" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="101" t="s">
-        <v>251</v>
+      <c r="A97" s="99" t="s">
+        <v>240</v>
       </c>
       <c r="B97" s="26" t="n">
-        <v>42522</v>
+        <v>42515</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D97" s="100" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="D97" s="100" t="n">
+        <v>2141</v>
       </c>
       <c r="E97" s="25" t="n">
         <v>1800</v>
@@ -38313,16 +38313,16 @@
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="99" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B98" s="26" t="n">
-        <v>42401</v>
+        <v>42516</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D98" s="100" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="E98" s="25" t="n">
         <v>1800</v>
@@ -38349,17 +38349,17 @@
       <c r="Y98" s="94"/>
     </row>
     <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="99" t="s">
-        <v>252</v>
+      <c r="A99" s="102" t="s">
+        <v>251</v>
       </c>
       <c r="B99" s="26" t="n">
-        <v>42535</v>
+        <v>42522</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="D99" s="100" t="n">
-        <v>1041</v>
+      <c r="D99" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E99" s="25" t="n">
         <v>1800</v>
@@ -38386,17 +38386,17 @@
       <c r="Y99" s="94"/>
     </row>
     <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" s="45" t="n">
-        <v>42411</v>
+      <c r="A100" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="26" t="n">
+        <v>42528</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D100" s="100" t="n">
-        <v>1413</v>
+        <v>433</v>
+      </c>
+      <c r="D100" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E100" s="25" t="n">
         <v>1800</v>
@@ -38424,13 +38424,13 @@
     </row>
     <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="99" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B101" s="26" t="n">
-        <v>42559</v>
+        <v>42534</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D101" s="100" t="s">
         <v>432</v>
@@ -38461,10 +38461,10 @@
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="99" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B102" s="26" t="n">
-        <v>42417</v>
+        <v>42535</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>430</v>
@@ -38497,17 +38497,17 @@
       <c r="Y102" s="94"/>
     </row>
     <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="101" t="s">
-        <v>255</v>
+      <c r="A103" s="99" t="s">
+        <v>252</v>
       </c>
       <c r="B103" s="26" t="n">
-        <v>42552</v>
+        <v>42535</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D103" s="100" t="s">
-        <v>432</v>
+        <v>438</v>
+      </c>
+      <c r="D103" s="100" t="n">
+        <v>1041</v>
       </c>
       <c r="E103" s="25" t="n">
         <v>1800</v>
@@ -38534,17 +38534,17 @@
       <c r="Y103" s="94"/>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="101" t="s">
-        <v>120</v>
+      <c r="A104" s="99" t="s">
+        <v>242</v>
       </c>
       <c r="B104" s="26" t="n">
-        <v>42459</v>
+        <v>42536</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D104" s="94" t="s">
         <v>461</v>
+      </c>
+      <c r="D104" s="100" t="n">
+        <v>2612</v>
       </c>
       <c r="E104" s="25" t="n">
         <v>1800</v>
@@ -38571,16 +38571,16 @@
       <c r="Y104" s="94"/>
     </row>
     <row r="105" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="101" t="s">
-        <v>196</v>
+      <c r="A105" s="99" t="s">
+        <v>222</v>
       </c>
       <c r="B105" s="26" t="n">
-        <v>42465</v>
-      </c>
-      <c r="C105" s="25" t="s">
+        <v>42550</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D105" s="94" t="s">
+      <c r="D105" s="100" t="s">
         <v>462</v>
       </c>
       <c r="E105" s="25" t="n">
@@ -38608,14 +38608,14 @@
       <c r="Y105" s="94"/>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="101" t="s">
-        <v>256</v>
+      <c r="A106" s="102" t="s">
+        <v>255</v>
       </c>
       <c r="B106" s="26" t="n">
-        <v>42587</v>
+        <v>42552</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D106" s="100" t="s">
         <v>432</v>
@@ -38645,16 +38645,16 @@
       <c r="Y106" s="95"/>
     </row>
     <row r="107" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="99" t="s">
-        <v>197</v>
+      <c r="A107" s="102" t="s">
+        <v>220</v>
       </c>
       <c r="B107" s="26" t="n">
-        <v>42466</v>
-      </c>
-      <c r="C107" s="25" t="s">
+        <v>42558</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D107" s="94" t="s">
+      <c r="D107" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E107" s="25" t="n">
@@ -38683,10 +38683,10 @@
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="99" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B108" s="26" t="n">
-        <v>42594</v>
+        <v>42559</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>430</v>
@@ -38720,16 +38720,16 @@
     </row>
     <row r="109" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="99" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B109" s="26" t="n">
-        <v>42472</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>430</v>
+        <v>42562</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>433</v>
       </c>
       <c r="D109" s="100" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="E109" s="25" t="n">
         <v>1800</v>
@@ -38757,16 +38757,16 @@
     </row>
     <row r="110" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="99" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B110" s="26" t="n">
-        <v>42606</v>
+        <v>42583</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D110" s="100" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="D110" s="100" t="n">
+        <v>2512</v>
       </c>
       <c r="E110" s="25" t="n">
         <v>1800</v>
@@ -38793,20 +38793,20 @@
       <c r="Y110" s="94"/>
     </row>
     <row r="111" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="99" t="s">
-        <v>418</v>
+      <c r="A111" s="102" t="s">
+        <v>256</v>
       </c>
       <c r="B111" s="26" t="n">
-        <v>42235</v>
+        <v>42587</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D111" s="100" t="n">
-        <v>2512</v>
+        <v>430</v>
+      </c>
+      <c r="D111" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E111" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F111" s="93"/>
       <c r="G111" s="93"/>
@@ -38831,10 +38831,10 @@
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="99" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="B112" s="26" t="n">
-        <v>42234</v>
+        <v>42594</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>430</v>
@@ -38843,7 +38843,7 @@
         <v>432</v>
       </c>
       <c r="E112" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F112" s="93"/>
       <c r="G112" s="93"/>
@@ -38868,10 +38868,10 @@
     </row>
     <row r="113" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="99" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="B113" s="26" t="n">
-        <v>42373</v>
+        <v>42598</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>430</v>
@@ -38905,19 +38905,19 @@
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="99" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B114" s="26" t="n">
-        <v>42237</v>
+        <v>42604</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D114" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E114" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F114" s="93"/>
       <c r="G114" s="93"/>
@@ -38942,16 +38942,16 @@
     </row>
     <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="99" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B115" s="26" t="n">
-        <v>42367</v>
+        <v>42606</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D115" s="100" t="n">
-        <v>1823</v>
+        <v>433</v>
+      </c>
+      <c r="D115" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="E115" s="25" t="n">
         <v>1800</v>
@@ -38979,19 +38979,19 @@
     </row>
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="99" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B116" s="26" t="n">
-        <v>42250</v>
+        <v>42751</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D116" s="100" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="E116" s="25" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F116" s="93"/>
       <c r="G116" s="93"/>
@@ -39016,10 +39016,10 @@
     </row>
     <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="99" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B117" s="26" t="n">
-        <v>42373</v>
+        <v>42863</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>430</v>
